--- a/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.058692855387676</v>
+        <v>4.058692855388017</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7315677200906094</v>
+        <v>0.7315677200909647</v>
       </c>
       <c r="E2">
         <v>3.556958166100003</v>
       </c>
       <c r="F2">
-        <v>11.70691035581723</v>
+        <v>11.7069103558172</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.31092601540243</v>
+        <v>13.31092601540234</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.361441026931686</v>
+        <v>3.361441026931345</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5240086424395258</v>
+        <v>0.5240086424397248</v>
       </c>
       <c r="E3">
         <v>2.94227336264359</v>
       </c>
       <c r="F3">
-        <v>8.787073951709942</v>
+        <v>8.787073951709857</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.83851676702395</v>
+        <v>10.83851676702406</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.980263010112765</v>
+        <v>2.980263010113276</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4289991147224583</v>
+        <v>0.4289991147225436</v>
       </c>
       <c r="E4">
-        <v>2.609385313011302</v>
+        <v>2.609385313011316</v>
       </c>
       <c r="F4">
-        <v>7.397172135978593</v>
+        <v>7.397172135978622</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.529610737954584</v>
+        <v>9.529610737954613</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.832252110753132</v>
+        <v>2.832252110753075</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>0.395099426805757</v>
       </c>
       <c r="E5">
-        <v>2.480456694023047</v>
+        <v>2.480456694023076</v>
       </c>
       <c r="F5">
-        <v>6.891193549469222</v>
+        <v>6.891193549469278</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.028014326772421</v>
+        <v>9.028014326772478</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.808034715192605</v>
+        <v>2.808034715192832</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3897028075471098</v>
+        <v>0.3897028075472377</v>
       </c>
       <c r="E6">
-        <v>2.459373707143527</v>
+        <v>2.459373707143541</v>
       </c>
       <c r="F6">
-        <v>6.810102807195477</v>
+        <v>6.810102807195534</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.978241185369825</v>
+        <v>2.978241185369313</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4285252444599053</v>
+        <v>0.42852524445955</v>
       </c>
       <c r="E7">
         <v>2.60762317486882</v>
       </c>
       <c r="F7">
-        <v>7.390138443464281</v>
+        <v>7.390138443464167</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.52273536068148</v>
+        <v>9.522735360681565</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E8">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F8">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E9">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F9">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E10">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F10">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E11">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F11">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E12">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F12">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E13">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F13">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E14">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F14">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E15">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F15">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E16">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F16">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E17">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F17">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E18">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F18">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E19">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F19">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E20">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F20">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E21">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F21">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E22">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F22">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E23">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F23">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E24">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F24">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.804597111716419</v>
+        <v>3.804597111716305</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.6502388725054971</v>
+        <v>0.6502388725052697</v>
       </c>
       <c r="E25">
-        <v>3.331784686798471</v>
+        <v>3.331784686798514</v>
       </c>
       <c r="F25">
-        <v>10.57956264771329</v>
+        <v>10.57956264771354</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.058692855388017</v>
+        <v>4.058692855387676</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7315677200909647</v>
+        <v>0.7315677200906094</v>
       </c>
       <c r="E2">
         <v>3.556958166100003</v>
       </c>
       <c r="F2">
-        <v>11.7069103558172</v>
+        <v>11.70691035581723</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.31092601540234</v>
+        <v>13.31092601540243</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.361441026931345</v>
+        <v>3.361441026931686</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5240086424397248</v>
+        <v>0.5240086424395258</v>
       </c>
       <c r="E3">
         <v>2.94227336264359</v>
       </c>
       <c r="F3">
-        <v>8.787073951709857</v>
+        <v>8.787073951709942</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.83851676702406</v>
+        <v>10.83851676702395</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.980263010113276</v>
+        <v>2.980263010112765</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4289991147225436</v>
+        <v>0.4289991147224583</v>
       </c>
       <c r="E4">
-        <v>2.609385313011316</v>
+        <v>2.609385313011302</v>
       </c>
       <c r="F4">
-        <v>7.397172135978622</v>
+        <v>7.397172135978593</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.529610737954613</v>
+        <v>9.529610737954584</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.832252110753075</v>
+        <v>2.832252110753132</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>0.395099426805757</v>
       </c>
       <c r="E5">
-        <v>2.480456694023076</v>
+        <v>2.480456694023047</v>
       </c>
       <c r="F5">
-        <v>6.891193549469278</v>
+        <v>6.891193549469222</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.028014326772478</v>
+        <v>9.028014326772421</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.808034715192832</v>
+        <v>2.808034715192605</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3897028075472377</v>
+        <v>0.3897028075471098</v>
       </c>
       <c r="E6">
-        <v>2.459373707143541</v>
+        <v>2.459373707143527</v>
       </c>
       <c r="F6">
-        <v>6.810102807195534</v>
+        <v>6.810102807195477</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.978241185369313</v>
+        <v>2.978241185369825</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.42852524445955</v>
+        <v>0.4285252444599053</v>
       </c>
       <c r="E7">
         <v>2.60762317486882</v>
       </c>
       <c r="F7">
-        <v>7.390138443464167</v>
+        <v>7.390138443464281</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.522735360681565</v>
+        <v>9.52273536068148</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E8">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F8">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E9">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F9">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E10">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F10">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E11">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F11">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E12">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F12">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E13">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F13">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E14">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F14">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E15">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F15">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E16">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F16">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E17">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F17">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E18">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F18">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E19">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F19">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E20">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F20">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E21">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F21">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E22">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F22">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E23">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F23">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E24">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F24">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.804597111716305</v>
+        <v>3.804597111716419</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.6502388725052697</v>
+        <v>0.6502388725054971</v>
       </c>
       <c r="E25">
-        <v>3.331784686798514</v>
+        <v>3.331784686798471</v>
       </c>
       <c r="F25">
-        <v>10.57956264771354</v>
+        <v>10.57956264771329</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.058692855387676</v>
+        <v>4.023834861104888</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7315677200906094</v>
+        <v>0.6953908096858754</v>
       </c>
       <c r="E2">
-        <v>3.556958166100003</v>
+        <v>3.509300004595644</v>
       </c>
       <c r="F2">
-        <v>11.70691035581723</v>
+        <v>11.32621941226512</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000524374628696661</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,33 +442,36 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.31092601540243</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>13.13062845268107</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.361441026931686</v>
+        <v>3.338277871172011</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5240086424395258</v>
+        <v>0.4993557622943996</v>
       </c>
       <c r="E3">
-        <v>2.94227336264359</v>
+        <v>2.907307340259848</v>
       </c>
       <c r="F3">
-        <v>8.787073951709942</v>
+        <v>8.537129151177794</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005738793103486838</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,33 +483,36 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.83851676702395</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>10.71369095917194</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.980263010112765</v>
+        <v>2.961834534295804</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4289991147224583</v>
+        <v>0.4091405588674775</v>
       </c>
       <c r="E4">
-        <v>2.609385313011302</v>
+        <v>2.579446969464712</v>
       </c>
       <c r="F4">
-        <v>7.397172135978593</v>
+        <v>7.20053784512919</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006007837297983871</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,33 +524,36 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.529610737954584</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.426799684627298</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.832252110753132</v>
+        <v>2.815464987566827</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.395099426805757</v>
+        <v>0.3769276353598627</v>
       </c>
       <c r="E5">
-        <v>2.480456694023047</v>
+        <v>2.452239429884472</v>
       </c>
       <c r="F5">
-        <v>6.891193549469222</v>
+        <v>6.713121002052276</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006112633799026967</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,33 +565,36 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.028014326772421</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.932757506298117</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.808034715192605</v>
+        <v>2.791507452436804</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3897028075471098</v>
+        <v>0.3717993995881841</v>
       </c>
       <c r="E6">
-        <v>2.459373707143527</v>
+        <v>2.431427726303099</v>
       </c>
       <c r="F6">
-        <v>6.810102807195477</v>
+        <v>6.634973493750778</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006129814069928776</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,33 +606,36 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.946268286633682</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.852203423880979</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.978241185369825</v>
+        <v>2.959835780402329</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4285252444599053</v>
+        <v>0.408690300795044</v>
       </c>
       <c r="E7">
-        <v>2.60762317486882</v>
+        <v>2.577709109510195</v>
       </c>
       <c r="F7">
-        <v>7.390138443464281</v>
+        <v>7.193764731230885</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006009266801014311</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,33 +647,36 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.52273536068148</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.420030786137374</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E8">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F8">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,33 +688,36 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E9">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F9">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,33 +729,36 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E10">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F10">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,33 +770,36 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E11">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F11">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,33 +811,36 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E12">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F12">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,33 +852,36 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E13">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F13">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,33 +893,36 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E14">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F14">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,33 +934,36 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E15">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F15">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,33 +975,36 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E16">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F16">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,33 +1016,36 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E17">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F17">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,33 +1057,36 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E18">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F18">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,33 +1098,36 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E19">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F19">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,33 +1139,36 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E20">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F20">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,33 +1180,36 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E21">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F21">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,33 +1221,36 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E22">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F22">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,33 +1262,36 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E23">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F23">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,33 +1303,36 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E24">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F24">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,33 +1344,36 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.804597111716419</v>
+        <v>3.774617968215068</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.6502388725054971</v>
+        <v>0.6188268531911092</v>
       </c>
       <c r="E25">
-        <v>3.331784686798471</v>
+        <v>3.289457849163853</v>
       </c>
       <c r="F25">
-        <v>10.57956264771329</v>
+        <v>10.2533030409237</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005425181565541317</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.39652313678405</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>12.23952510353215</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1863118781184312</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02258369259898174</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2423444773757737</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9265276026562361</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.860733125387128</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5345901915917182</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2991634623929365</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.157320420104355</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8298142427539901</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0.162740217844572</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.02230444835094758</v>
+      </c>
+      <c r="E3">
+        <v>0.2115939579700026</v>
+      </c>
+      <c r="F3">
+        <v>0.8426772538877714</v>
+      </c>
+      <c r="G3">
+        <v>0.7810272717404558</v>
+      </c>
+      <c r="H3">
+        <v>0.505466534183185</v>
+      </c>
+      <c r="I3">
+        <v>0.3107691674307951</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1.87637113164817</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.716421058571413</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.1482489427000644</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.02213676694009337</v>
+      </c>
+      <c r="E4">
+        <v>0.1932059417373537</v>
+      </c>
+      <c r="F4">
+        <v>0.793252840605831</v>
+      </c>
+      <c r="G4">
+        <v>0.7342173442327322</v>
+      </c>
+      <c r="H4">
+        <v>0.4887802280342584</v>
+      </c>
+      <c r="I4">
+        <v>0.31858072578693</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1.704782610629223</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6475989662433932</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.1423376672696293</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.02206927179560481</v>
+      </c>
+      <c r="E5">
+        <v>0.1858227698685369</v>
+      </c>
+      <c r="F5">
+        <v>0.7735871535441561</v>
+      </c>
+      <c r="G5">
+        <v>0.715631839975515</v>
+      </c>
+      <c r="H5">
+        <v>0.4822601953748773</v>
+      </c>
+      <c r="I5">
+        <v>0.3219296489719667</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1.635036372863652</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6197245483102591</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.1413557058400698</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.02205811188308715</v>
+      </c>
+      <c r="E6">
+        <v>0.1846030631769366</v>
+      </c>
+      <c r="F6">
+        <v>0.7703491810370622</v>
+      </c>
+      <c r="G6">
+        <v>0.7125740451761828</v>
+      </c>
+      <c r="H6">
+        <v>0.4811938620315743</v>
+      </c>
+      <c r="I6">
+        <v>0.3224955499903892</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1.62346431355698</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.6151055097918814</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.1481692470741365</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.02213585342482105</v>
+      </c>
+      <c r="E7">
+        <v>0.1931059415142826</v>
+      </c>
+      <c r="F7">
+        <v>0.7929857529148592</v>
+      </c>
+      <c r="G7">
+        <v>0.7339647680252028</v>
+      </c>
+      <c r="H7">
+        <v>0.4886911904044382</v>
+      </c>
+      <c r="I7">
+        <v>0.318625228459787</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1.703841336794056</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6472223878246979</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0.1781872630545109</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.0224865507017995</v>
+      </c>
+      <c r="E8">
+        <v>0.2316307201877592</v>
+      </c>
+      <c r="F8">
+        <v>0.8971617151548656</v>
+      </c>
+      <c r="G8">
+        <v>0.8327800418120859</v>
+      </c>
+      <c r="H8">
+        <v>0.524287136246528</v>
+      </c>
+      <c r="I8">
+        <v>0.3030186237857819</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2.060226068067408</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.7905307924691272</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0.2369797573332733</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.02321058607606474</v>
+      </c>
+      <c r="E9">
+        <v>0.3117733269788587</v>
+      </c>
+      <c r="F9">
+        <v>1.119895044849301</v>
+      </c>
+      <c r="G9">
+        <v>1.045691515955369</v>
+      </c>
+      <c r="H9">
+        <v>0.6046027859738672</v>
+      </c>
+      <c r="I9">
+        <v>0.2781792362613587</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2.76897826637645</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.07942776027155</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0.2802430400789149</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.0237757131164571</v>
+      </c>
+      <c r="E10">
+        <v>0.3745092212158809</v>
+      </c>
+      <c r="F10">
+        <v>1.297980907165936</v>
+      </c>
+      <c r="G10">
+        <v>1.21719330022583</v>
+      </c>
+      <c r="H10">
+        <v>0.671581882780373</v>
+      </c>
+      <c r="I10">
+        <v>0.2639313421410918</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3.299763915902531</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.298799254681413</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0.2999674701664077</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.02404317441382631</v>
+      </c>
+      <c r="E11">
+        <v>0.4041519399227766</v>
+      </c>
+      <c r="F11">
+        <v>1.382928601164792</v>
+      </c>
+      <c r="G11">
+        <v>1.299336909060685</v>
+      </c>
+      <c r="H11">
+        <v>0.7041727397590591</v>
+      </c>
+      <c r="I11">
+        <v>0.2584378744404674</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3.544428905531902</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.400725170362591</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0.3074453719125501</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.02414627438569283</v>
+      </c>
+      <c r="E12">
+        <v>0.4155606014710713</v>
+      </c>
+      <c r="F12">
+        <v>1.415736102259288</v>
+      </c>
+      <c r="G12">
+        <v>1.331115247477754</v>
+      </c>
+      <c r="H12">
+        <v>0.7168555422375675</v>
+      </c>
+      <c r="I12">
+        <v>0.256510791935078</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3.637632287814938</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.43968295522744</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0.3058344449630823</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.02412398328735321</v>
+      </c>
+      <c r="E13">
+        <v>0.413094949275262</v>
+      </c>
+      <c r="F13">
+        <v>1.408640713705623</v>
+      </c>
+      <c r="G13">
+        <v>1.324239963952806</v>
+      </c>
+      <c r="H13">
+        <v>0.7141082731961035</v>
+      </c>
+      <c r="I13">
+        <v>0.2569188228976387</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>3.617533044529466</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.431275735208658</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0.3005824929808796</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.02405161799886102</v>
+      </c>
+      <c r="E14">
+        <v>0.4050867049387676</v>
+      </c>
+      <c r="F14">
+        <v>1.385614424430685</v>
+      </c>
+      <c r="G14">
+        <v>1.301937375303851</v>
+      </c>
+      <c r="H14">
+        <v>0.7052090988896964</v>
+      </c>
+      <c r="I14">
+        <v>0.2582761949556094</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3.552085132452191</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.403922692224967</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0.2973667272037517</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.02400753960321111</v>
+      </c>
+      <c r="E15">
+        <v>0.4002061219256774</v>
+      </c>
+      <c r="F15">
+        <v>1.371595779186691</v>
+      </c>
+      <c r="G15">
+        <v>1.288366439626458</v>
+      </c>
+      <c r="H15">
+        <v>0.6998036935283949</v>
+      </c>
+      <c r="I15">
+        <v>0.2591279200565815</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3.512071475681978</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.387216834868596</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0.2789550823407438</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.02375846930845071</v>
+      </c>
+      <c r="E16">
+        <v>0.372596275034411</v>
+      </c>
+      <c r="F16">
+        <v>1.292514698406521</v>
+      </c>
+      <c r="G16">
+        <v>1.211914620451751</v>
+      </c>
+      <c r="H16">
+        <v>0.6694977008656906</v>
+      </c>
+      <c r="I16">
+        <v>0.2643111593427427</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3.283846740987542</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.292185552337514</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0.2676729752518696</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.02360854556736669</v>
+      </c>
+      <c r="E17">
+        <v>0.3559580841963168</v>
+      </c>
+      <c r="F17">
+        <v>1.24505910449632</v>
+      </c>
+      <c r="G17">
+        <v>1.166124436771355</v>
+      </c>
+      <c r="H17">
+        <v>0.6514739990226133</v>
+      </c>
+      <c r="I17">
+        <v>0.2677515305405507</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3.144722832875459</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.234469761077804</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0.2611877667556115</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.02352326794452253</v>
+      </c>
+      <c r="E18">
+        <v>0.3464904904881081</v>
+      </c>
+      <c r="F18">
+        <v>1.21812949260071</v>
+      </c>
+      <c r="G18">
+        <v>1.140170359568373</v>
+      </c>
+      <c r="H18">
+        <v>0.6413045664357355</v>
+      </c>
+      <c r="I18">
+        <v>0.2698226100860452</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>3.064998277376446</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.201470345641525</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0.2589925974658485</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.02349454936215878</v>
+      </c>
+      <c r="E19">
+        <v>0.3433017750477632</v>
+      </c>
+      <c r="F19">
+        <v>1.209072255194727</v>
+      </c>
+      <c r="G19">
+        <v>1.13144630161915</v>
+      </c>
+      <c r="H19">
+        <v>0.6378942183891638</v>
+      </c>
+      <c r="I19">
+        <v>0.2705393677148251</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3.038053055235565</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.190329626655732</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0.2688735481936959</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.02362440423973666</v>
+      </c>
+      <c r="E20">
+        <v>0.3577184938403875</v>
+      </c>
+      <c r="F20">
+        <v>1.250072486356885</v>
+      </c>
+      <c r="G20">
+        <v>1.170958671999443</v>
+      </c>
+      <c r="H20">
+        <v>0.6533719800377469</v>
+      </c>
+      <c r="I20">
+        <v>0.2673756705260217</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>3.159501551794193</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.240592925800257</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0.3021248625613566</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.02407282120947585</v>
+      </c>
+      <c r="E21">
+        <v>0.4074337249209847</v>
+      </c>
+      <c r="F21">
+        <v>1.392359817568092</v>
+      </c>
+      <c r="G21">
+        <v>1.308469268245489</v>
+      </c>
+      <c r="H21">
+        <v>0.7078134297354097</v>
+      </c>
+      <c r="I21">
+        <v>0.2578732509752513</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3.571292944326842</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.411946696037674</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0.3239084386331967</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.02437668036646912</v>
+      </c>
+      <c r="E22">
+        <v>0.4410093846925704</v>
+      </c>
+      <c r="F22">
+        <v>1.489121203015216</v>
+      </c>
+      <c r="G22">
+        <v>1.402302190103114</v>
+      </c>
+      <c r="H22">
+        <v>0.7454034377498715</v>
+      </c>
+      <c r="I22">
+        <v>0.2525616335196013</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>3.843702456463348</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.526067971189534</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0.312276531293179</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.02421339423464985</v>
+      </c>
+      <c r="E23">
+        <v>0.4229812629828515</v>
+      </c>
+      <c r="F23">
+        <v>1.437106584316112</v>
+      </c>
+      <c r="G23">
+        <v>1.351830954564633</v>
+      </c>
+      <c r="H23">
+        <v>0.725144070661969</v>
+      </c>
+      <c r="I23">
+        <v>0.2553103532369327</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>3.697978907959737</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.46494481134313</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0.26833076615209</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.02361723170595198</v>
+      </c>
+      <c r="E24">
+        <v>0.3569223094736245</v>
+      </c>
+      <c r="F24">
+        <v>1.247804841627129</v>
+      </c>
+      <c r="G24">
+        <v>1.168771963569583</v>
+      </c>
+      <c r="H24">
+        <v>0.6525133055021684</v>
+      </c>
+      <c r="I24">
+        <v>0.2675453074792671</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3.152819291159204</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.237824079639779</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.2210715723520167</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.02300981545252156</v>
+      </c>
+      <c r="E25">
+        <v>0.2894981947691946</v>
+      </c>
+      <c r="F25">
+        <v>1.057352449477818</v>
+      </c>
+      <c r="G25">
+        <v>0.9857116769152299</v>
+      </c>
+      <c r="H25">
+        <v>0.5815972891055594</v>
+      </c>
+      <c r="I25">
+        <v>0.2842339027435479</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2.575789960253786</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.000204836149138</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1863118781184312</v>
+        <v>0.06363980524021429</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02258369259898174</v>
+        <v>0.02128720379556626</v>
       </c>
       <c r="E2">
-        <v>0.2423444773757737</v>
+        <v>0.1310726571657526</v>
       </c>
       <c r="F2">
-        <v>0.9265276026562361</v>
+        <v>0.8968467584287936</v>
       </c>
       <c r="G2">
-        <v>0.860733125387128</v>
+        <v>0.7513072746196343</v>
       </c>
       <c r="H2">
-        <v>0.5345901915917182</v>
+        <v>0.7954328276419602</v>
       </c>
       <c r="I2">
-        <v>0.2991634623929365</v>
+        <v>0.5477375792393744</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.157320420104355</v>
+        <v>0.6520098420949694</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8298142427539901</v>
+        <v>0.2929985920987264</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.162740217844572</v>
+        <v>0.05604972957387133</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02230444835094758</v>
+        <v>0.02104086425620721</v>
       </c>
       <c r="E3">
-        <v>0.2115939579700026</v>
+        <v>0.1238348222857653</v>
       </c>
       <c r="F3">
-        <v>0.8426772538877714</v>
+        <v>0.8820359146490091</v>
       </c>
       <c r="G3">
-        <v>0.7810272717404558</v>
+        <v>0.7366545312302861</v>
       </c>
       <c r="H3">
-        <v>0.505466534183185</v>
+        <v>0.7939190579276669</v>
       </c>
       <c r="I3">
-        <v>0.3107691674307951</v>
+        <v>0.5540500731687104</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.87637113164817</v>
+        <v>0.5692006543793866</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.716421058571413</v>
+        <v>0.2619325534778056</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1482489427000644</v>
+        <v>0.05138430412557682</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02213676694009337</v>
+        <v>0.02088919826360325</v>
       </c>
       <c r="E4">
-        <v>0.1932059417373537</v>
+        <v>0.1194920486920168</v>
       </c>
       <c r="F4">
-        <v>0.793252840605831</v>
+        <v>0.8736030089369677</v>
       </c>
       <c r="G4">
-        <v>0.7342173442327322</v>
+        <v>0.7282704937141204</v>
       </c>
       <c r="H4">
-        <v>0.4887802280342584</v>
+        <v>0.7934644900973922</v>
       </c>
       <c r="I4">
-        <v>0.31858072578693</v>
+        <v>0.5582158832843671</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.704782610629223</v>
+        <v>0.5183021734767124</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6475989662433932</v>
+        <v>0.2429539404418648</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1423376672696293</v>
+        <v>0.04948199249898266</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02206927179560481</v>
+        <v>0.02082729872750022</v>
       </c>
       <c r="E5">
-        <v>0.1858227698685369</v>
+        <v>0.1177475322208963</v>
       </c>
       <c r="F5">
-        <v>0.7735871535441561</v>
+        <v>0.8703321486367486</v>
       </c>
       <c r="G5">
-        <v>0.715631839975515</v>
+        <v>0.725007258705034</v>
       </c>
       <c r="H5">
-        <v>0.4822601953748773</v>
+        <v>0.7933984290393994</v>
       </c>
       <c r="I5">
-        <v>0.3219296489719667</v>
+        <v>0.5599862877392798</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.635036372863652</v>
+        <v>0.4975473291987669</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6197245483102591</v>
+        <v>0.235243851911747</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1413557058400698</v>
+        <v>0.04916605281633224</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02205811188308715</v>
+        <v>0.02081701493306198</v>
       </c>
       <c r="E6">
-        <v>0.1846030631769366</v>
+        <v>0.1174593706744389</v>
       </c>
       <c r="F6">
-        <v>0.7703491810370622</v>
+        <v>0.8697990101575925</v>
       </c>
       <c r="G6">
-        <v>0.7125740451761828</v>
+        <v>0.7244746392807713</v>
       </c>
       <c r="H6">
-        <v>0.4811938620315743</v>
+        <v>0.7933946508822487</v>
       </c>
       <c r="I6">
-        <v>0.3224955499903892</v>
+        <v>0.560284656297398</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.62346431355698</v>
+        <v>0.4941002032415724</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6151055097918814</v>
+        <v>0.2339650292964279</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1481692470741365</v>
+        <v>0.05135865317001276</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02213585342482105</v>
+        <v>0.02088836383455828</v>
       </c>
       <c r="E7">
-        <v>0.1931059415142826</v>
+        <v>0.1194684198584213</v>
       </c>
       <c r="F7">
-        <v>0.7929857529148592</v>
+        <v>0.873558227191424</v>
       </c>
       <c r="G7">
-        <v>0.7339647680252028</v>
+        <v>0.7282258647834823</v>
       </c>
       <c r="H7">
-        <v>0.4886911904044382</v>
+        <v>0.7934631169422062</v>
       </c>
       <c r="I7">
-        <v>0.318625228459787</v>
+        <v>0.5582394649338696</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.703841336794056</v>
+        <v>0.5180223200890168</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6472223878246979</v>
+        <v>0.2428498633197833</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1781872630545109</v>
+        <v>0.06102390041289141</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0224865507017995</v>
+        <v>0.02120235695340611</v>
       </c>
       <c r="E8">
-        <v>0.2316307201877592</v>
+        <v>0.1285558644041132</v>
       </c>
       <c r="F8">
-        <v>0.8971617151548656</v>
+        <v>0.8916024180757205</v>
       </c>
       <c r="G8">
-        <v>0.8327800418120859</v>
+        <v>0.7461273525241694</v>
       </c>
       <c r="H8">
-        <v>0.524287136246528</v>
+        <v>0.7948121703732483</v>
       </c>
       <c r="I8">
-        <v>0.3030186237857819</v>
+        <v>0.5498538972040059</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.060226068067408</v>
+        <v>0.6234683314498852</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7905307924691272</v>
+        <v>0.2822668905863495</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2369797573332733</v>
+        <v>0.07993069191915936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02321058607606474</v>
+        <v>0.02181445853193864</v>
       </c>
       <c r="E9">
-        <v>0.3117733269788587</v>
+        <v>0.1471931924692953</v>
       </c>
       <c r="F9">
-        <v>1.119895044849301</v>
+        <v>0.9322620286754244</v>
       </c>
       <c r="G9">
-        <v>1.045691515955369</v>
+        <v>0.7861318903267858</v>
       </c>
       <c r="H9">
-        <v>0.6046027859738672</v>
+        <v>0.8012376666745951</v>
       </c>
       <c r="I9">
-        <v>0.2781792362613587</v>
+        <v>0.5357144278073882</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.76897826637645</v>
+        <v>0.8298309730909068</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.07942776027155</v>
+        <v>0.3603436245790022</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2802430400789149</v>
+        <v>0.09378590041299617</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0237757131164571</v>
+        <v>0.02226152688188066</v>
       </c>
       <c r="E10">
-        <v>0.3745092212158809</v>
+        <v>0.1614038035344478</v>
       </c>
       <c r="F10">
-        <v>1.297980907165936</v>
+        <v>0.965396704244128</v>
       </c>
       <c r="G10">
-        <v>1.21719330022583</v>
+        <v>0.818566183754541</v>
       </c>
       <c r="H10">
-        <v>0.671581882780373</v>
+        <v>0.808281245028553</v>
       </c>
       <c r="I10">
-        <v>0.2639313421410918</v>
+        <v>0.5267368052176664</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.299763915902531</v>
+        <v>0.981216111730788</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.298799254681413</v>
+        <v>0.4182128269320913</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2999674701664077</v>
+        <v>0.1000798573902273</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02404317441382631</v>
+        <v>0.02246425543680175</v>
       </c>
       <c r="E11">
-        <v>0.4041519399227766</v>
+        <v>0.1679853757119076</v>
       </c>
       <c r="F11">
-        <v>1.382928601164792</v>
+        <v>0.9811891202228367</v>
       </c>
       <c r="G11">
-        <v>1.299336909060685</v>
+        <v>0.8339944493690723</v>
       </c>
       <c r="H11">
-        <v>0.7041727397590591</v>
+        <v>0.8119940232738827</v>
       </c>
       <c r="I11">
-        <v>0.2584378744404674</v>
+        <v>0.5229601828471644</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.544428905531902</v>
+        <v>1.050041705912804</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.400725170362591</v>
+        <v>0.4446559707640176</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3074453719125501</v>
+        <v>0.1024617972244926</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02414627438569283</v>
+        <v>0.02254092351947889</v>
       </c>
       <c r="E12">
-        <v>0.4155606014710713</v>
+        <v>0.1704948090001395</v>
       </c>
       <c r="F12">
-        <v>1.415736102259288</v>
+        <v>0.9872734721900684</v>
       </c>
       <c r="G12">
-        <v>1.331115247477754</v>
+        <v>0.8399345308169757</v>
       </c>
       <c r="H12">
-        <v>0.7168555422375675</v>
+        <v>0.8134733976994255</v>
       </c>
       <c r="I12">
-        <v>0.256510791935078</v>
+        <v>0.5215743783005991</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.637632287814938</v>
+        <v>1.076098571636635</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.43968295522744</v>
+        <v>0.4546867378685135</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3058344449630823</v>
+        <v>0.1019488708694354</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02412398328735321</v>
+        <v>0.02252441628438362</v>
       </c>
       <c r="E13">
-        <v>0.413094949275262</v>
+        <v>0.1699535908212724</v>
       </c>
       <c r="F13">
-        <v>1.408640713705623</v>
+        <v>0.9859584571835995</v>
       </c>
       <c r="G13">
-        <v>1.324239963952806</v>
+        <v>0.8386508677867255</v>
       </c>
       <c r="H13">
-        <v>0.7141082731961035</v>
+        <v>0.8131515177150561</v>
       </c>
       <c r="I13">
-        <v>0.2569188228976387</v>
+        <v>0.5218708629552111</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.617533044529466</v>
+        <v>1.070487022988004</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.431275735208658</v>
+        <v>0.4525256569365581</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3005824929808796</v>
+        <v>0.1002758509603581</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02405161799886102</v>
+        <v>0.02247056503113853</v>
       </c>
       <c r="E14">
-        <v>0.4050867049387676</v>
+        <v>0.1681914831852822</v>
       </c>
       <c r="F14">
-        <v>1.385614424430685</v>
+        <v>0.9816875931934987</v>
       </c>
       <c r="G14">
-        <v>1.301937375303851</v>
+        <v>0.8344811798760645</v>
       </c>
       <c r="H14">
-        <v>0.7052090988896964</v>
+        <v>0.8121142590823638</v>
       </c>
       <c r="I14">
-        <v>0.2582761949556094</v>
+        <v>0.5228452829116073</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.552085132452191</v>
+        <v>1.052185538589072</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.403922692224967</v>
+        <v>0.4454808589223944</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2973667272037517</v>
+        <v>0.09925088466147258</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02400753960321111</v>
+        <v>0.02243756622051052</v>
       </c>
       <c r="E15">
-        <v>0.4002061219256774</v>
+        <v>0.167114381673052</v>
       </c>
       <c r="F15">
-        <v>1.371595779186691</v>
+        <v>0.9790851435185459</v>
       </c>
       <c r="G15">
-        <v>1.288366439626458</v>
+        <v>0.8319398784763621</v>
       </c>
       <c r="H15">
-        <v>0.6998036935283949</v>
+        <v>0.8114884789942494</v>
       </c>
       <c r="I15">
-        <v>0.2591279200565815</v>
+        <v>0.5234479187977819</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.512071475681978</v>
+        <v>1.040974580655416</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.387216834868596</v>
+        <v>0.4411679825613959</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2789550823407438</v>
+        <v>0.09337438268481435</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02375846930845071</v>
+        <v>0.02224826441572603</v>
       </c>
       <c r="E16">
-        <v>0.372596275034411</v>
+        <v>0.1609760638642612</v>
       </c>
       <c r="F16">
-        <v>1.292514698406521</v>
+        <v>0.9643791641698556</v>
       </c>
       <c r="G16">
-        <v>1.211914620451751</v>
+        <v>0.817571540222815</v>
       </c>
       <c r="H16">
-        <v>0.6694977008656906</v>
+        <v>0.8080488654447322</v>
       </c>
       <c r="I16">
-        <v>0.2643111593427427</v>
+        <v>0.5269898115687468</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.283846740987542</v>
+        <v>0.9767173779602842</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.292185552337514</v>
+        <v>0.416487111115444</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2676729752518696</v>
+        <v>0.08976694964799492</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02360854556736669</v>
+        <v>0.02213196282342267</v>
       </c>
       <c r="E17">
-        <v>0.3559580841963168</v>
+        <v>0.1572406057613449</v>
       </c>
       <c r="F17">
-        <v>1.24505910449632</v>
+        <v>0.9555422274584373</v>
       </c>
       <c r="G17">
-        <v>1.166124436771355</v>
+        <v>0.808930194748541</v>
       </c>
       <c r="H17">
-        <v>0.6514739990226133</v>
+        <v>0.8060692470702691</v>
       </c>
       <c r="I17">
-        <v>0.2677515305405507</v>
+        <v>0.5292414548057529</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.144722832875459</v>
+        <v>0.9372872752949775</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.234469761077804</v>
+        <v>0.4013766924944235</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2611877667556115</v>
+        <v>0.08769122710648958</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02352326794452253</v>
+        <v>0.02206500896397401</v>
       </c>
       <c r="E18">
-        <v>0.3464904904881081</v>
+        <v>0.1551030726287905</v>
       </c>
       <c r="F18">
-        <v>1.21812949260071</v>
+        <v>0.9505271172802736</v>
       </c>
       <c r="G18">
-        <v>1.140170359568373</v>
+        <v>0.8040232863291124</v>
       </c>
       <c r="H18">
-        <v>0.6413045664357355</v>
+        <v>0.8049784792604271</v>
       </c>
       <c r="I18">
-        <v>0.2698226100860452</v>
+        <v>0.5305654615625492</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.064998277376446</v>
+        <v>0.9146043386093936</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.201470345641525</v>
+        <v>0.3926966803609417</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2589925974658485</v>
+        <v>0.08698828715341733</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02349454936215878</v>
+        <v>0.02204232943971363</v>
       </c>
       <c r="E19">
-        <v>0.3433017750477632</v>
+        <v>0.1543812215016516</v>
       </c>
       <c r="F19">
-        <v>1.209072255194727</v>
+        <v>0.9488406876798052</v>
       </c>
       <c r="G19">
-        <v>1.13144630161915</v>
+        <v>0.8023727486333314</v>
       </c>
       <c r="H19">
-        <v>0.6378942183891638</v>
+        <v>0.8046173746879788</v>
       </c>
       <c r="I19">
-        <v>0.2705393677148251</v>
+        <v>0.5310187109326918</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.038053055235565</v>
+        <v>0.9069236393412439</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.190329626655732</v>
+        <v>0.3897596739640079</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2688735481936959</v>
+        <v>0.09015105343311802</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02362440423973666</v>
+        <v>0.02214434962262146</v>
       </c>
       <c r="E20">
-        <v>0.3577184938403875</v>
+        <v>0.1576371106841989</v>
       </c>
       <c r="F20">
-        <v>1.250072486356885</v>
+        <v>0.9564759268046146</v>
       </c>
       <c r="G20">
-        <v>1.170958671999443</v>
+        <v>0.8098435165510978</v>
       </c>
       <c r="H20">
-        <v>0.6533719800377469</v>
+        <v>0.8062750257977882</v>
       </c>
       <c r="I20">
-        <v>0.2673756705260217</v>
+        <v>0.5289987694054439</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.159501551794193</v>
+        <v>0.9414850695126518</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.240592925800257</v>
+        <v>0.4029840710553714</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3021248625613566</v>
+        <v>0.1007672980514087</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02407282120947585</v>
+        <v>0.02248638524844182</v>
       </c>
       <c r="E21">
-        <v>0.4074337249209847</v>
+        <v>0.1687085895042273</v>
       </c>
       <c r="F21">
-        <v>1.392359817568092</v>
+        <v>0.9829392186577905</v>
       </c>
       <c r="G21">
-        <v>1.308469268245489</v>
+        <v>0.8357032590904225</v>
       </c>
       <c r="H21">
-        <v>0.7078134297354097</v>
+        <v>0.8124169320296915</v>
       </c>
       <c r="I21">
-        <v>0.2578732509752513</v>
+        <v>0.5225578683125178</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.571292944326842</v>
+        <v>1.057561288886802</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.411946696037674</v>
+        <v>0.4475496140695867</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3239084386331967</v>
+        <v>0.1076971254548198</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02437668036646912</v>
+        <v>0.02270933415319476</v>
       </c>
       <c r="E22">
-        <v>0.4410093846925704</v>
+        <v>0.1760444546150737</v>
       </c>
       <c r="F22">
-        <v>1.489121203015216</v>
+        <v>1.000841638685074</v>
       </c>
       <c r="G22">
-        <v>1.402302190103114</v>
+        <v>0.8531741492329843</v>
       </c>
       <c r="H22">
-        <v>0.7454034377498715</v>
+        <v>0.8168591398680007</v>
       </c>
       <c r="I22">
-        <v>0.2525616335196013</v>
+        <v>0.518606758199855</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.843702456463348</v>
+        <v>1.133389420198569</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.526067971189534</v>
+        <v>0.4767768988712078</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.312276531293179</v>
+        <v>0.1039993808287676</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02421339423464985</v>
+        <v>0.02259039878872215</v>
       </c>
       <c r="E23">
-        <v>0.4229812629828515</v>
+        <v>0.1721199154574222</v>
       </c>
       <c r="F23">
-        <v>1.437106584316112</v>
+        <v>0.9912310042837049</v>
       </c>
       <c r="G23">
-        <v>1.351830954564633</v>
+        <v>0.8437971652258227</v>
       </c>
       <c r="H23">
-        <v>0.725144070661969</v>
+        <v>0.8144489817760245</v>
       </c>
       <c r="I23">
-        <v>0.2553103532369327</v>
+        <v>0.5206918559686819</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.697978907959737</v>
+        <v>1.092921696699307</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.46494481134313</v>
+        <v>0.461168382768804</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.26833076615209</v>
+        <v>0.08997740558505996</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02361723170595198</v>
+        <v>0.02213874983211639</v>
       </c>
       <c r="E24">
-        <v>0.3569223094736245</v>
+        <v>0.157457819587556</v>
       </c>
       <c r="F24">
-        <v>1.247804841627129</v>
+        <v>0.9560535977744706</v>
       </c>
       <c r="G24">
-        <v>1.168771963569583</v>
+        <v>0.80943041345094</v>
       </c>
       <c r="H24">
-        <v>0.6525133055021684</v>
+        <v>0.8061818457812251</v>
       </c>
       <c r="I24">
-        <v>0.2675453074792671</v>
+        <v>0.5291083955674232</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.152819291159204</v>
+        <v>0.9395872905016915</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.237824079639779</v>
+        <v>0.4022573529117892</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2210715723520167</v>
+        <v>0.07482164901557553</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02300981545252156</v>
+        <v>0.02164930356603634</v>
       </c>
       <c r="E25">
-        <v>0.2894981947691946</v>
+        <v>0.1420618121066113</v>
       </c>
       <c r="F25">
-        <v>1.057352449477818</v>
+        <v>0.9206930273848428</v>
       </c>
       <c r="G25">
-        <v>0.9857116769152299</v>
+        <v>0.7747792773158579</v>
       </c>
       <c r="H25">
-        <v>0.5815972891055594</v>
+        <v>0.7990928325783102</v>
       </c>
       <c r="I25">
-        <v>0.2842339027435479</v>
+        <v>0.5392922166175893</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.575789960253786</v>
+        <v>0.7740465307030888</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.000204836149138</v>
+        <v>0.3391351353165106</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06363980524021429</v>
+        <v>0.1863118781184312</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02128720379556626</v>
+        <v>0.02258369259881121</v>
       </c>
       <c r="E2">
-        <v>0.1310726571657526</v>
+        <v>0.2423444773757879</v>
       </c>
       <c r="F2">
-        <v>0.8968467584287936</v>
+        <v>0.9265276026562219</v>
       </c>
       <c r="G2">
-        <v>0.7513072746196343</v>
+        <v>0.8607331253871422</v>
       </c>
       <c r="H2">
-        <v>0.7954328276419602</v>
+        <v>0.5345901915917182</v>
       </c>
       <c r="I2">
-        <v>0.5477375792393744</v>
+        <v>0.2991634623929471</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6520098420949694</v>
+        <v>2.157320420104242</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2929985920987264</v>
+        <v>0.829814242753983</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05604972957387133</v>
+        <v>0.1627402178444868</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02104086425620721</v>
+        <v>0.02230444835111101</v>
       </c>
       <c r="E3">
-        <v>0.1238348222857653</v>
+        <v>0.2115939579699599</v>
       </c>
       <c r="F3">
-        <v>0.8820359146490091</v>
+        <v>0.8426772538877714</v>
       </c>
       <c r="G3">
-        <v>0.7366545312302861</v>
+        <v>0.7810272717404558</v>
       </c>
       <c r="H3">
-        <v>0.7939190579276669</v>
+        <v>0.5054665341830571</v>
       </c>
       <c r="I3">
-        <v>0.5540500731687104</v>
+        <v>0.3107691674308022</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5692006543793866</v>
+        <v>1.876371131648142</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2619325534778056</v>
+        <v>0.716421058571413</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05138430412557682</v>
+        <v>0.1482489426999365</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02088919826360325</v>
+        <v>0.02213676694026034</v>
       </c>
       <c r="E4">
-        <v>0.1194920486920168</v>
+        <v>0.1932059417373537</v>
       </c>
       <c r="F4">
-        <v>0.8736030089369677</v>
+        <v>0.793252840605831</v>
       </c>
       <c r="G4">
-        <v>0.7282704937141204</v>
+        <v>0.7342173442327038</v>
       </c>
       <c r="H4">
-        <v>0.7934644900973922</v>
+        <v>0.4887802280342584</v>
       </c>
       <c r="I4">
-        <v>0.5582158832843671</v>
+        <v>0.3185807257869335</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5183021734767124</v>
+        <v>1.704782610629195</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2429539404418648</v>
+        <v>0.647598966243379</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04948199249898266</v>
+        <v>0.1423376672697714</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02082729872750022</v>
+        <v>0.02206927179553375</v>
       </c>
       <c r="E5">
-        <v>0.1177475322208963</v>
+        <v>0.1858227698685297</v>
       </c>
       <c r="F5">
-        <v>0.8703321486367486</v>
+        <v>0.7735871535441561</v>
       </c>
       <c r="G5">
-        <v>0.725007258705034</v>
+        <v>0.715631839975515</v>
       </c>
       <c r="H5">
-        <v>0.7933984290393994</v>
+        <v>0.4822601953749057</v>
       </c>
       <c r="I5">
-        <v>0.5599862877392798</v>
+        <v>0.3219296489719561</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4975473291987669</v>
+        <v>1.635036372863738</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.235243851911747</v>
+        <v>0.619724548310252</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04916605281633224</v>
+        <v>0.1413557058399562</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02081701493306198</v>
+        <v>0.02205811188314399</v>
       </c>
       <c r="E6">
-        <v>0.1174593706744389</v>
+        <v>0.1846030631769366</v>
       </c>
       <c r="F6">
-        <v>0.8697990101575925</v>
+        <v>0.770349181037048</v>
       </c>
       <c r="G6">
-        <v>0.7244746392807713</v>
+        <v>0.7125740451761402</v>
       </c>
       <c r="H6">
-        <v>0.7933946508822487</v>
+        <v>0.4811938620315601</v>
       </c>
       <c r="I6">
-        <v>0.560284656297398</v>
+        <v>0.3224955499903803</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4941002032415724</v>
+        <v>1.62346431355698</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2339650292964279</v>
+        <v>0.6151055097918956</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05135865317001276</v>
+        <v>0.1481692470740086</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02088836383455828</v>
+        <v>0.0221358534248246</v>
       </c>
       <c r="E7">
-        <v>0.1194684198584213</v>
+        <v>0.1931059415142826</v>
       </c>
       <c r="F7">
-        <v>0.873558227191424</v>
+        <v>0.7929857529148308</v>
       </c>
       <c r="G7">
-        <v>0.7282258647834823</v>
+        <v>0.7339647680251744</v>
       </c>
       <c r="H7">
-        <v>0.7934631169422062</v>
+        <v>0.4886911904045377</v>
       </c>
       <c r="I7">
-        <v>0.5582394649338696</v>
+        <v>0.3186252284597835</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5180223200890168</v>
+        <v>1.703841336794085</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2428498633197833</v>
+        <v>0.647222387824705</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06102390041289141</v>
+        <v>0.1781872630545251</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02120235695340611</v>
+        <v>0.0224865507017995</v>
       </c>
       <c r="E8">
-        <v>0.1285558644041132</v>
+        <v>0.2316307201877663</v>
       </c>
       <c r="F8">
-        <v>0.8916024180757205</v>
+        <v>0.8971617151548656</v>
       </c>
       <c r="G8">
-        <v>0.7461273525241694</v>
+        <v>0.8327800418120859</v>
       </c>
       <c r="H8">
-        <v>0.7948121703732483</v>
+        <v>0.5242871362466133</v>
       </c>
       <c r="I8">
-        <v>0.5498538972040059</v>
+        <v>0.3030186237857713</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6234683314498852</v>
+        <v>2.060226068067465</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2822668905863495</v>
+        <v>0.790530792469113</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07993069191915936</v>
+        <v>0.2369797573334012</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02181445853193864</v>
+        <v>0.02321058607610738</v>
       </c>
       <c r="E9">
-        <v>0.1471931924692953</v>
+        <v>0.3117733269788516</v>
       </c>
       <c r="F9">
-        <v>0.9322620286754244</v>
+        <v>1.119895044849301</v>
       </c>
       <c r="G9">
-        <v>0.7861318903267858</v>
+        <v>1.045691515955355</v>
       </c>
       <c r="H9">
-        <v>0.8012376666745951</v>
+        <v>0.6046027859738388</v>
       </c>
       <c r="I9">
-        <v>0.5357144278073882</v>
+        <v>0.2781792362613658</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8298309730909068</v>
+        <v>2.768978266376507</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3603436245790022</v>
+        <v>1.079427760271564</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09378590041299617</v>
+        <v>0.2802430400790143</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02226152688188066</v>
+        <v>0.02377571311649618</v>
       </c>
       <c r="E10">
-        <v>0.1614038035344478</v>
+        <v>0.3745092212158667</v>
       </c>
       <c r="F10">
-        <v>0.965396704244128</v>
+        <v>1.297980907165922</v>
       </c>
       <c r="G10">
-        <v>0.818566183754541</v>
+        <v>1.217193300225802</v>
       </c>
       <c r="H10">
-        <v>0.808281245028553</v>
+        <v>0.671581882780373</v>
       </c>
       <c r="I10">
-        <v>0.5267368052176664</v>
+        <v>0.2639313421410883</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.981216111730788</v>
+        <v>3.299763915902673</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4182128269320913</v>
+        <v>1.298799254681413</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1000798573902273</v>
+        <v>0.2999674701665214</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02246425543680175</v>
+        <v>0.02404317441374104</v>
       </c>
       <c r="E11">
-        <v>0.1679853757119076</v>
+        <v>0.4041519399228264</v>
       </c>
       <c r="F11">
-        <v>0.9811891202228367</v>
+        <v>1.382928601164778</v>
       </c>
       <c r="G11">
-        <v>0.8339944493690723</v>
+        <v>1.299336909060685</v>
       </c>
       <c r="H11">
-        <v>0.8119940232738827</v>
+        <v>0.7041727397590591</v>
       </c>
       <c r="I11">
-        <v>0.5229601828471644</v>
+        <v>0.2584378744404674</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.050041705912804</v>
+        <v>3.544428905531845</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4446559707640176</v>
+        <v>1.400725170362605</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1024617972244926</v>
+        <v>0.3074453719126922</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02254092351947889</v>
+        <v>0.02414627438542638</v>
       </c>
       <c r="E12">
-        <v>0.1704948090001395</v>
+        <v>0.4155606014710997</v>
       </c>
       <c r="F12">
-        <v>0.9872734721900684</v>
+        <v>1.415736102259274</v>
       </c>
       <c r="G12">
-        <v>0.8399345308169757</v>
+        <v>1.331115247477697</v>
       </c>
       <c r="H12">
-        <v>0.8134733976994255</v>
+        <v>0.7168555422374538</v>
       </c>
       <c r="I12">
-        <v>0.5215743783005991</v>
+        <v>0.2565107919350851</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.076098571636635</v>
+        <v>3.637632287814881</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4546867378685135</v>
+        <v>1.439682955227454</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1019488708694354</v>
+        <v>0.3058344449631676</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02252441628438362</v>
+        <v>0.02412398328727505</v>
       </c>
       <c r="E13">
-        <v>0.1699535908212724</v>
+        <v>0.4130949492752833</v>
       </c>
       <c r="F13">
-        <v>0.9859584571835995</v>
+        <v>1.408640713705609</v>
       </c>
       <c r="G13">
-        <v>0.8386508677867255</v>
+        <v>1.324239963952863</v>
       </c>
       <c r="H13">
-        <v>0.8131515177150561</v>
+        <v>0.7141082731961035</v>
       </c>
       <c r="I13">
-        <v>0.5218708629552111</v>
+        <v>0.2569188228976493</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.070487022988004</v>
+        <v>3.617533044529523</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4525256569365581</v>
+        <v>1.431275735208615</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1002758509603581</v>
+        <v>0.3005824929807517</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02247056503113853</v>
+        <v>0.02405161799924826</v>
       </c>
       <c r="E14">
-        <v>0.1681914831852822</v>
+        <v>0.405086704938789</v>
       </c>
       <c r="F14">
-        <v>0.9816875931934987</v>
+        <v>1.385614424430671</v>
       </c>
       <c r="G14">
-        <v>0.8344811798760645</v>
+        <v>1.301937375303879</v>
       </c>
       <c r="H14">
-        <v>0.8121142590823638</v>
+        <v>0.7052090988898101</v>
       </c>
       <c r="I14">
-        <v>0.5228452829116073</v>
+        <v>0.2582761949556165</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.052185538589072</v>
+        <v>3.552085132452191</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4454808589223944</v>
+        <v>1.403922692224967</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.09925088466147258</v>
+        <v>0.297366727203709</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02243756622051052</v>
+        <v>0.02400753960309387</v>
       </c>
       <c r="E15">
-        <v>0.167114381673052</v>
+        <v>0.4002061219256845</v>
       </c>
       <c r="F15">
-        <v>0.9790851435185459</v>
+        <v>1.371595779186691</v>
       </c>
       <c r="G15">
-        <v>0.8319398784763621</v>
+        <v>1.288366439626515</v>
       </c>
       <c r="H15">
-        <v>0.8114884789942494</v>
+        <v>0.6998036935283949</v>
       </c>
       <c r="I15">
-        <v>0.5234479187977819</v>
+        <v>0.2591279200565815</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.040974580655416</v>
+        <v>3.512071475681921</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4411679825613959</v>
+        <v>1.38721683486861</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.09337438268481435</v>
+        <v>0.2789550823407438</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02224826441572603</v>
+        <v>0.02375846930833347</v>
       </c>
       <c r="E16">
-        <v>0.1609760638642612</v>
+        <v>0.3725962750344252</v>
       </c>
       <c r="F16">
-        <v>0.9643791641698556</v>
+        <v>1.292514698406521</v>
       </c>
       <c r="G16">
-        <v>0.817571540222815</v>
+        <v>1.211914620451694</v>
       </c>
       <c r="H16">
-        <v>0.8080488654447322</v>
+        <v>0.6694977008658043</v>
       </c>
       <c r="I16">
-        <v>0.5269898115687468</v>
+        <v>0.2643111593427605</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9767173779602842</v>
+        <v>3.28384674098757</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.416487111115444</v>
+        <v>1.292185552337514</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08976694964799492</v>
+        <v>0.2676729752519833</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02213196282342267</v>
+        <v>0.02360854556737024</v>
       </c>
       <c r="E17">
-        <v>0.1572406057613449</v>
+        <v>0.3559580841962813</v>
       </c>
       <c r="F17">
-        <v>0.9555422274584373</v>
+        <v>1.245059104496335</v>
       </c>
       <c r="G17">
-        <v>0.808930194748541</v>
+        <v>1.166124436771383</v>
       </c>
       <c r="H17">
-        <v>0.8060692470702691</v>
+        <v>0.6514739990226133</v>
       </c>
       <c r="I17">
-        <v>0.5292414548057529</v>
+        <v>0.2677515305405436</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9372872752949775</v>
+        <v>3.144722832875544</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4013766924944235</v>
+        <v>1.234469761077804</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.08769122710648958</v>
+        <v>0.2611877667554978</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02206500896397401</v>
+        <v>0.02352326794433068</v>
       </c>
       <c r="E18">
-        <v>0.1551030726287905</v>
+        <v>0.346490490488101</v>
       </c>
       <c r="F18">
-        <v>0.9505271172802736</v>
+        <v>1.21812949260071</v>
       </c>
       <c r="G18">
-        <v>0.8040232863291124</v>
+        <v>1.140170359568401</v>
       </c>
       <c r="H18">
-        <v>0.8049784792604271</v>
+        <v>0.6413045664357355</v>
       </c>
       <c r="I18">
-        <v>0.5305654615625492</v>
+        <v>0.2698226100860275</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9146043386093936</v>
+        <v>3.064998277376475</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3926966803609417</v>
+        <v>1.201470345641539</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.08698828715341733</v>
+        <v>0.2589925974657206</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02204232943971363</v>
+        <v>0.02349454936215167</v>
       </c>
       <c r="E19">
-        <v>0.1543812215016516</v>
+        <v>0.3433017750477632</v>
       </c>
       <c r="F19">
-        <v>0.9488406876798052</v>
+        <v>1.209072255194727</v>
       </c>
       <c r="G19">
-        <v>0.8023727486333314</v>
+        <v>1.131446301618979</v>
       </c>
       <c r="H19">
-        <v>0.8046173746879788</v>
+        <v>0.6378942183891638</v>
       </c>
       <c r="I19">
-        <v>0.5310187109326918</v>
+        <v>0.2705393677148109</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9069236393412439</v>
+        <v>3.038053055235594</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3897596739640079</v>
+        <v>1.190329626655746</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09015105343311802</v>
+        <v>0.2688735481936817</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02214434962262146</v>
+        <v>0.02362440423961587</v>
       </c>
       <c r="E20">
-        <v>0.1576371106841989</v>
+        <v>0.3577184938403803</v>
       </c>
       <c r="F20">
-        <v>0.9564759268046146</v>
+        <v>1.250072486356885</v>
       </c>
       <c r="G20">
-        <v>0.8098435165510978</v>
+        <v>1.170958671999415</v>
       </c>
       <c r="H20">
-        <v>0.8062750257977882</v>
+        <v>0.6533719800378606</v>
       </c>
       <c r="I20">
-        <v>0.5289987694054439</v>
+        <v>0.2673756705260182</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9414850695126518</v>
+        <v>3.159501551794307</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4029840710553714</v>
+        <v>1.240592925800243</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1007672980514087</v>
+        <v>0.3021248625612287</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02248638524844182</v>
+        <v>0.02407282120927334</v>
       </c>
       <c r="E21">
-        <v>0.1687085895042273</v>
+        <v>0.4074337249209847</v>
       </c>
       <c r="F21">
-        <v>0.9829392186577905</v>
+        <v>1.392359817568092</v>
       </c>
       <c r="G21">
-        <v>0.8357032590904225</v>
+        <v>1.30846926824546</v>
       </c>
       <c r="H21">
-        <v>0.8124169320296915</v>
+        <v>0.7078134297355234</v>
       </c>
       <c r="I21">
-        <v>0.5225578683125178</v>
+        <v>0.2578732509752548</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.057561288886802</v>
+        <v>3.571292944326785</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4475496140695867</v>
+        <v>1.411946696037674</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1076971254548198</v>
+        <v>0.3239084386331683</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02270933415319476</v>
+        <v>0.02437668036646912</v>
       </c>
       <c r="E22">
-        <v>0.1760444546150737</v>
+        <v>0.4410093846925704</v>
       </c>
       <c r="F22">
-        <v>1.000841638685074</v>
+        <v>1.48912120301523</v>
       </c>
       <c r="G22">
-        <v>0.8531741492329843</v>
+        <v>1.402302190103114</v>
       </c>
       <c r="H22">
-        <v>0.8168591398680007</v>
+        <v>0.7454034377497294</v>
       </c>
       <c r="I22">
-        <v>0.518606758199855</v>
+        <v>0.2525616335195977</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.133389420198569</v>
+        <v>3.843702456463461</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4767768988712078</v>
+        <v>1.526067971189534</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1039993808287676</v>
+        <v>0.3122765312930937</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02259039878872215</v>
+        <v>0.0242133942346463</v>
       </c>
       <c r="E23">
-        <v>0.1721199154574222</v>
+        <v>0.4229812629828444</v>
       </c>
       <c r="F23">
-        <v>0.9912310042837049</v>
+        <v>1.437106584316112</v>
       </c>
       <c r="G23">
-        <v>0.8437971652258227</v>
+        <v>1.351830954564605</v>
       </c>
       <c r="H23">
-        <v>0.8144489817760245</v>
+        <v>0.725144070661969</v>
       </c>
       <c r="I23">
-        <v>0.5206918559686819</v>
+        <v>0.255310353236947</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.092921696699307</v>
+        <v>3.697978907959737</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.461168382768804</v>
+        <v>1.464944811343116</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08997740558505996</v>
+        <v>0.2683307661520615</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02213874983211639</v>
+        <v>0.02361723170605501</v>
       </c>
       <c r="E24">
-        <v>0.157457819587556</v>
+        <v>0.3569223094735676</v>
       </c>
       <c r="F24">
-        <v>0.9560535977744706</v>
+        <v>1.247804841627115</v>
       </c>
       <c r="G24">
-        <v>0.80943041345094</v>
+        <v>1.168771963569583</v>
       </c>
       <c r="H24">
-        <v>0.8061818457812251</v>
+        <v>0.6525133055021684</v>
       </c>
       <c r="I24">
-        <v>0.5291083955674232</v>
+        <v>0.2675453074792671</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9395872905016915</v>
+        <v>3.152819291159233</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4022573529117892</v>
+        <v>1.237824079639751</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.07482164901557553</v>
+        <v>0.2210715723520025</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02164930356603634</v>
+        <v>0.02300981545259262</v>
       </c>
       <c r="E25">
-        <v>0.1420618121066113</v>
+        <v>0.2894981947691804</v>
       </c>
       <c r="F25">
-        <v>0.9206930273848428</v>
+        <v>1.057352449477833</v>
       </c>
       <c r="G25">
-        <v>0.7747792773158579</v>
+        <v>0.9857116769152441</v>
       </c>
       <c r="H25">
-        <v>0.7990928325783102</v>
+        <v>0.5815972891055594</v>
       </c>
       <c r="I25">
-        <v>0.5392922166175893</v>
+        <v>0.2842339027435372</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7740465307030888</v>
+        <v>2.575789960253758</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3391351353165106</v>
+        <v>1.000204836149145</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1863118781184312</v>
+        <v>0.5551486225386952</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02258369259881121</v>
+        <v>0.1426160605696083</v>
       </c>
       <c r="E2">
-        <v>0.2423444773757879</v>
+        <v>1.881788683260908</v>
       </c>
       <c r="F2">
-        <v>0.9265276026562219</v>
+        <v>4.577433125911682</v>
       </c>
       <c r="G2">
-        <v>0.8607331253871422</v>
+        <v>5.349496332601973</v>
       </c>
       <c r="H2">
-        <v>0.5345901915917182</v>
+        <v>0.08025970438751528</v>
       </c>
       <c r="I2">
-        <v>0.2991634623929471</v>
+        <v>0.005903807541797867</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.632493768424581</v>
       </c>
       <c r="K2">
-        <v>2.157320420104242</v>
+        <v>0.5634572921613525</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.829814242753983</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>3.153887678557368</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1627402178444868</v>
+        <v>0.4844269334165858</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02230444835111101</v>
+        <v>0.122706479631475</v>
       </c>
       <c r="E3">
-        <v>0.2115939579699599</v>
+        <v>1.626629747420196</v>
       </c>
       <c r="F3">
-        <v>0.8426772538877714</v>
+        <v>3.943493488575939</v>
       </c>
       <c r="G3">
-        <v>0.7810272717404558</v>
+        <v>4.601443114695712</v>
       </c>
       <c r="H3">
-        <v>0.5054665341830571</v>
+        <v>0.06322942845000945</v>
       </c>
       <c r="I3">
-        <v>0.3107691674308022</v>
+        <v>0.006536737462899733</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.277763550764234</v>
       </c>
       <c r="K3">
-        <v>1.876371131648142</v>
+        <v>0.5248073823398371</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.716421058571413</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>2.848846467675344</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1482489426999365</v>
+        <v>0.4403425188864674</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02213676694026034</v>
+        <v>0.110727745380558</v>
       </c>
       <c r="E4">
-        <v>0.1932059417373537</v>
+        <v>1.473505688133955</v>
       </c>
       <c r="F4">
-        <v>0.793252840605831</v>
+        <v>3.562771770956346</v>
       </c>
       <c r="G4">
-        <v>0.7342173442327038</v>
+        <v>4.151990844537949</v>
       </c>
       <c r="H4">
-        <v>0.4887802280342584</v>
+        <v>0.05364727847644346</v>
       </c>
       <c r="I4">
-        <v>0.3185807257869335</v>
+        <v>0.006984047458503895</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.064830029261572</v>
       </c>
       <c r="K4">
-        <v>1.704782610629195</v>
+        <v>0.5017937305816815</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.647598966243379</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>2.663189306752713</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1423376672697714</v>
+        <v>0.4209941194590954</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02206927179553375</v>
+        <v>0.1058970401938808</v>
       </c>
       <c r="E5">
-        <v>0.1858227698685297</v>
+        <v>1.411831681095876</v>
       </c>
       <c r="F5">
-        <v>0.7735871535441561</v>
+        <v>3.409411368321258</v>
       </c>
       <c r="G5">
-        <v>0.715631839975515</v>
+        <v>3.970895076534788</v>
       </c>
       <c r="H5">
-        <v>0.4822601953749057</v>
+        <v>0.04993079164707748</v>
       </c>
       <c r="I5">
-        <v>0.3219296489719561</v>
+        <v>0.007262387320026598</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.979083094252388</v>
       </c>
       <c r="K5">
-        <v>1.635036372863738</v>
+        <v>0.4937246986577861</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.619724548310252</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>2.591606816167086</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1413557058399562</v>
+        <v>0.4162777628629755</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02205811188314399</v>
+        <v>0.1050976697630261</v>
       </c>
       <c r="E6">
-        <v>0.1846030631769366</v>
+        <v>1.401630072950695</v>
       </c>
       <c r="F6">
-        <v>0.770349181037048</v>
+        <v>3.384044291652913</v>
       </c>
       <c r="G6">
-        <v>0.7125740451761402</v>
+        <v>3.940937344364329</v>
       </c>
       <c r="H6">
-        <v>0.4811938620315601</v>
+        <v>0.0493241899896244</v>
       </c>
       <c r="I6">
-        <v>0.3224955499903803</v>
+        <v>0.007416628218759769</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.964901393786874</v>
       </c>
       <c r="K6">
-        <v>1.62346431355698</v>
+        <v>0.4937867603190682</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6151055097918956</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>2.584248125229067</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1481692470740086</v>
+        <v>0.435988206108334</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0221358534248246</v>
+        <v>0.1106624051075187</v>
       </c>
       <c r="E7">
-        <v>0.1931059415142826</v>
+        <v>1.472671199715279</v>
       </c>
       <c r="F7">
-        <v>0.7929857529148308</v>
+        <v>3.56069670422383</v>
       </c>
       <c r="G7">
-        <v>0.7339647680251744</v>
+        <v>4.149540701878237</v>
       </c>
       <c r="H7">
-        <v>0.4886911904045377</v>
+        <v>0.05359643327935437</v>
       </c>
       <c r="I7">
-        <v>0.3186252284597835</v>
+        <v>0.007265417066339097</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.063669712465497</v>
       </c>
       <c r="K7">
-        <v>1.703841336794085</v>
+        <v>0.505497223582914</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.647222387824705</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>2.67456787079081</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1781872630545251</v>
+        <v>0.5254446543241045</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0224865507017995</v>
+        <v>0.1356930971641219</v>
       </c>
       <c r="E8">
-        <v>0.2316307201877663</v>
+        <v>1.792967867100131</v>
       </c>
       <c r="F8">
-        <v>0.8971617151548656</v>
+        <v>4.356854602543166</v>
       </c>
       <c r="G8">
-        <v>0.8327800418120859</v>
+        <v>5.089253854131073</v>
       </c>
       <c r="H8">
-        <v>0.5242871362466133</v>
+        <v>0.07418595611836487</v>
       </c>
       <c r="I8">
-        <v>0.3030186237857713</v>
+        <v>0.006448909612156051</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.509043395984577</v>
       </c>
       <c r="K8">
-        <v>2.060226068067465</v>
+        <v>0.5550966982666949</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.790530792469113</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>3.064914032997706</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2369797573334012</v>
+        <v>0.7028054351517028</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02321058607610738</v>
+        <v>0.1873141929833082</v>
       </c>
       <c r="E9">
-        <v>0.3117733269788516</v>
+        <v>2.457910600756634</v>
       </c>
       <c r="F9">
-        <v>1.119895044849301</v>
+        <v>6.004407876910108</v>
       </c>
       <c r="G9">
-        <v>1.045691515955355</v>
+        <v>7.032232309530571</v>
       </c>
       <c r="H9">
-        <v>0.6046027859738388</v>
+        <v>0.123152436505741</v>
       </c>
       <c r="I9">
-        <v>0.2781792362613658</v>
+        <v>0.004899430836709406</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3.431592721365121</v>
       </c>
       <c r="K9">
-        <v>2.768978266376507</v>
+        <v>0.6512957820391492</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.079427760271564</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>3.821446641586363</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2802430400790143</v>
+        <v>0.8274133909539216</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02377571311649618</v>
+        <v>0.2219824534114707</v>
       </c>
       <c r="E10">
-        <v>0.3745092212158667</v>
+        <v>2.857066834716477</v>
       </c>
       <c r="F10">
-        <v>1.297980907165922</v>
+        <v>7.211142713744351</v>
       </c>
       <c r="G10">
-        <v>1.217193300225802</v>
+        <v>8.447844152625237</v>
       </c>
       <c r="H10">
-        <v>0.671581882780373</v>
+        <v>0.1635821214533166</v>
       </c>
       <c r="I10">
-        <v>0.2639313421410883</v>
+        <v>0.00422507927281135</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.103606991505728</v>
       </c>
       <c r="K10">
-        <v>3.299763915902673</v>
+        <v>0.7278334434132816</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.298799254681413</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>4.392771804451201</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2999674701665214</v>
+        <v>0.8764230239589494</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02404317441374104</v>
+        <v>0.190171209870897</v>
       </c>
       <c r="E11">
-        <v>0.4041519399228264</v>
+        <v>2.060991543236057</v>
       </c>
       <c r="F11">
-        <v>1.382928601164778</v>
+        <v>7.027257904605818</v>
       </c>
       <c r="G11">
-        <v>1.299336909060685</v>
+        <v>8.173502868931052</v>
       </c>
       <c r="H11">
-        <v>0.7041727397590591</v>
+        <v>0.1731553117270863</v>
       </c>
       <c r="I11">
-        <v>0.2584378744404674</v>
+        <v>0.004438238944215911</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.962459900649776</v>
       </c>
       <c r="K11">
-        <v>3.544428905531845</v>
+        <v>0.770167734960765</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.400725170362605</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>4.676079097228524</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3074453719126922</v>
+        <v>0.8984763595842651</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02414627438542638</v>
+        <v>0.1588916134378735</v>
       </c>
       <c r="E12">
-        <v>0.4155606014710997</v>
+        <v>1.45617561554792</v>
       </c>
       <c r="F12">
-        <v>1.415736102259274</v>
+        <v>6.623832974316997</v>
       </c>
       <c r="G12">
-        <v>1.331115247477697</v>
+        <v>7.655045915746769</v>
       </c>
       <c r="H12">
-        <v>0.7168555422374538</v>
+        <v>0.1997997249981012</v>
       </c>
       <c r="I12">
-        <v>0.2565107919350851</v>
+        <v>0.004298829379830948</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.706307435484575</v>
       </c>
       <c r="K12">
-        <v>3.637632287814881</v>
+        <v>0.7828461607044801</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.439682955227454</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>4.772479656867574</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3058344449631676</v>
+        <v>0.8944612085595338</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02412398328727505</v>
+        <v>0.1267842535079637</v>
       </c>
       <c r="E13">
-        <v>0.4130949492752833</v>
+        <v>0.9689969883159648</v>
       </c>
       <c r="F13">
-        <v>1.408640713705609</v>
+        <v>6.037767865262026</v>
       </c>
       <c r="G13">
-        <v>1.324239963952863</v>
+        <v>6.930980792842149</v>
       </c>
       <c r="H13">
-        <v>0.7141082731961035</v>
+        <v>0.2407925497342944</v>
       </c>
       <c r="I13">
-        <v>0.2569188228976493</v>
+        <v>0.004278899009388937</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.352642167027739</v>
       </c>
       <c r="K13">
-        <v>3.617533044529523</v>
+        <v>0.7794029683508654</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.431275735208615</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>4.749436361342759</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3005824929807517</v>
+        <v>0.8785493236400441</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02405161799924826</v>
+        <v>0.1046976052596449</v>
       </c>
       <c r="E14">
-        <v>0.405086704938789</v>
+        <v>0.7044191500014065</v>
       </c>
       <c r="F14">
-        <v>1.385614424430671</v>
+        <v>5.555399490972945</v>
       </c>
       <c r="G14">
-        <v>1.301937375303879</v>
+        <v>6.344353992617243</v>
       </c>
       <c r="H14">
-        <v>0.7052090988898101</v>
+        <v>0.2793198075697489</v>
       </c>
       <c r="I14">
-        <v>0.2582761949556165</v>
+        <v>0.004405233575648815</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3.067203866671093</v>
       </c>
       <c r="K14">
-        <v>3.552085132452191</v>
+        <v>0.7709080011075216</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.403922692224967</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>4.683040835970473</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.297366727203709</v>
+        <v>0.8673533903836415</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02400753960309387</v>
+        <v>0.09886437040169938</v>
       </c>
       <c r="E15">
-        <v>0.4002061219256845</v>
+        <v>0.6467244071793203</v>
       </c>
       <c r="F15">
-        <v>1.371595779186691</v>
+        <v>5.399986378684332</v>
       </c>
       <c r="G15">
-        <v>1.288366439626515</v>
+        <v>6.158399732789519</v>
       </c>
       <c r="H15">
-        <v>0.6998036935283949</v>
+        <v>0.2881550811326434</v>
       </c>
       <c r="I15">
-        <v>0.2591279200565815</v>
+        <v>0.004585676017240026</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.977367031970402</v>
       </c>
       <c r="K15">
-        <v>3.512071475681921</v>
+        <v>0.7671135838124812</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.38721683486861</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>4.646875737567882</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2789550823407438</v>
+        <v>0.8121092984665665</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02375846930833347</v>
+        <v>0.09255340285617564</v>
       </c>
       <c r="E16">
-        <v>0.3725962750344252</v>
+        <v>0.6083847358044849</v>
       </c>
       <c r="F16">
-        <v>1.292514698406521</v>
+        <v>5.030914794570919</v>
       </c>
       <c r="G16">
-        <v>1.211914620451694</v>
+        <v>5.736087272366262</v>
       </c>
       <c r="H16">
-        <v>0.6694977008658043</v>
+        <v>0.2630205156604717</v>
       </c>
       <c r="I16">
-        <v>0.2643111593427605</v>
+        <v>0.005015896760768079</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.778868756057818</v>
       </c>
       <c r="K16">
-        <v>3.28384674098757</v>
+        <v>0.7367419866929126</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.292185552337514</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>4.411745866443709</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2676729752519833</v>
+        <v>0.7780555216011749</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02360854556737024</v>
+        <v>0.09884086262932357</v>
       </c>
       <c r="E17">
-        <v>0.3559580841962813</v>
+        <v>0.7015247787859167</v>
       </c>
       <c r="F17">
-        <v>1.245059104496335</v>
+        <v>4.997681387323837</v>
       </c>
       <c r="G17">
-        <v>1.166124436771383</v>
+        <v>5.715353073626488</v>
       </c>
       <c r="H17">
-        <v>0.6514739990226133</v>
+        <v>0.2210477857833553</v>
       </c>
       <c r="I17">
-        <v>0.2677515305405436</v>
+        <v>0.005306317657361781</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.774330534344074</v>
       </c>
       <c r="K17">
-        <v>3.144722832875544</v>
+        <v>0.7182930209565868</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.234469761077804</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>4.267897868637277</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2611877667554978</v>
+        <v>0.7620504551377394</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02352326794433068</v>
+        <v>0.1180399926855245</v>
       </c>
       <c r="E18">
-        <v>0.346490490488101</v>
+        <v>0.9875937626506897</v>
       </c>
       <c r="F18">
-        <v>1.21812949260071</v>
+        <v>5.252338050703599</v>
       </c>
       <c r="G18">
-        <v>1.140170359568401</v>
+        <v>6.043078495729787</v>
       </c>
       <c r="H18">
-        <v>0.6413045664357355</v>
+        <v>0.1717729931829197</v>
       </c>
       <c r="I18">
-        <v>0.2698226100860275</v>
+        <v>0.005201912227929206</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.938326095852403</v>
       </c>
       <c r="K18">
-        <v>3.064998277376475</v>
+        <v>0.704210383409027</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.201470345641539</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>4.173968501421939</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2589925974657206</v>
+        <v>0.7538120580642556</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02349454936215167</v>
+        <v>0.1488100977224178</v>
       </c>
       <c r="E19">
-        <v>0.3433017750477632</v>
+        <v>1.520614353554677</v>
       </c>
       <c r="F19">
-        <v>1.209072255194727</v>
+        <v>5.737684425169391</v>
       </c>
       <c r="G19">
-        <v>1.131446301618979</v>
+        <v>6.651482840767926</v>
       </c>
       <c r="H19">
-        <v>0.6378942183891638</v>
+        <v>0.1388089873795124</v>
       </c>
       <c r="I19">
-        <v>0.2705393677148109</v>
+        <v>0.005381502156640572</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3.237011408356011</v>
       </c>
       <c r="K19">
-        <v>3.038053055235594</v>
+        <v>0.7021806382960278</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.190329626655746</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>4.15093092319924</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2688735481936817</v>
+        <v>0.7819724523656362</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02362440423961587</v>
+        <v>0.2124596098415878</v>
       </c>
       <c r="E20">
-        <v>0.3577184938403803</v>
+        <v>2.744438919208335</v>
       </c>
       <c r="F20">
-        <v>1.250072486356885</v>
+        <v>6.884118717726068</v>
       </c>
       <c r="G20">
-        <v>1.170958671999415</v>
+        <v>8.06399826596504</v>
       </c>
       <c r="H20">
-        <v>0.6533719800378606</v>
+        <v>0.152195834116899</v>
       </c>
       <c r="I20">
-        <v>0.2673756705260182</v>
+        <v>0.005252132228487305</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.921259764309525</v>
       </c>
       <c r="K20">
-        <v>3.159501551794307</v>
+        <v>0.7199718592388535</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.240592925800243</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>4.282304901225046</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3021248625612287</v>
+        <v>0.8791446987358427</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02407282120927334</v>
+        <v>0.2491392676740674</v>
       </c>
       <c r="E21">
-        <v>0.4074337249209847</v>
+        <v>3.262683984314521</v>
       </c>
       <c r="F21">
-        <v>1.392359817568092</v>
+        <v>7.982926966845611</v>
       </c>
       <c r="G21">
-        <v>1.30846926824546</v>
+        <v>9.363769998059126</v>
       </c>
       <c r="H21">
-        <v>0.7078134297355234</v>
+        <v>0.1921906024990676</v>
       </c>
       <c r="I21">
-        <v>0.2578732509752548</v>
+        <v>0.004657007411067227</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.540565034249539</v>
       </c>
       <c r="K21">
-        <v>3.571292944326785</v>
+        <v>0.7773677113325661</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.411946696037674</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>4.715254362997882</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3239084386331683</v>
+        <v>0.947281522238427</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02437668036646912</v>
+        <v>0.2710895660354709</v>
       </c>
       <c r="E22">
-        <v>0.4410093846925704</v>
+        <v>3.55063517831617</v>
       </c>
       <c r="F22">
-        <v>1.48912120301523</v>
+        <v>8.685929112889454</v>
       </c>
       <c r="G22">
-        <v>1.402302190103114</v>
+        <v>10.19192992309348</v>
       </c>
       <c r="H22">
-        <v>0.7454034377497294</v>
+        <v>0.219232662196891</v>
       </c>
       <c r="I22">
-        <v>0.2525616335195977</v>
+        <v>0.003983873804842553</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.934820834399204</v>
       </c>
       <c r="K22">
-        <v>3.843702456463461</v>
+        <v>0.810451163419394</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.526067971189534</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>4.983394309352491</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3122765312930937</v>
+        <v>0.9158952049805578</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0242133942346463</v>
+        <v>0.2592811047482968</v>
       </c>
       <c r="E23">
-        <v>0.4229812629828444</v>
+        <v>3.395583910781127</v>
       </c>
       <c r="F23">
-        <v>1.437106584316112</v>
+        <v>8.307727523577</v>
       </c>
       <c r="G23">
-        <v>1.351830954564605</v>
+        <v>9.746409162658153</v>
       </c>
       <c r="H23">
-        <v>0.725144070661969</v>
+        <v>0.2045253354582464</v>
       </c>
       <c r="I23">
-        <v>0.255310353236947</v>
+        <v>0.004003525572080058</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.722706078442684</v>
       </c>
       <c r="K23">
-        <v>3.697978907959737</v>
+        <v>0.787958286494522</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.464944811343116</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>4.824826428540291</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2683307661520615</v>
+        <v>0.7879251788613999</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02361723170605501</v>
+        <v>0.2164010908263236</v>
       </c>
       <c r="E24">
-        <v>0.3569223094735676</v>
+        <v>2.835377753430279</v>
       </c>
       <c r="F24">
-        <v>1.247804841627115</v>
+        <v>6.934806567366422</v>
       </c>
       <c r="G24">
-        <v>1.168771963569583</v>
+        <v>8.128811534334034</v>
       </c>
       <c r="H24">
-        <v>0.6525133055021684</v>
+        <v>0.1542887491227418</v>
       </c>
       <c r="I24">
-        <v>0.2675453074792671</v>
+        <v>0.004721862074525518</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.952963341265217</v>
       </c>
       <c r="K24">
-        <v>3.152819291159233</v>
+        <v>0.7117378459152022</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.237824079639751</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>4.251808598754025</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2210715723520025</v>
+        <v>0.647943454452701</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02300981545259262</v>
+        <v>0.1729868677262942</v>
       </c>
       <c r="E25">
-        <v>0.2894981947691804</v>
+        <v>2.272731376509682</v>
       </c>
       <c r="F25">
-        <v>1.057352449477833</v>
+        <v>5.546566506162208</v>
       </c>
       <c r="G25">
-        <v>0.9857116769152441</v>
+        <v>6.492466542746854</v>
       </c>
       <c r="H25">
-        <v>0.5815972891055594</v>
+        <v>0.1087308906827502</v>
       </c>
       <c r="I25">
-        <v>0.2842339027435372</v>
+        <v>0.005746076940682521</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3.175124639767716</v>
       </c>
       <c r="K25">
-        <v>2.575789960253758</v>
+        <v>0.6317499572742733</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.000204836149145</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>3.638247859403151</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5551486225386952</v>
+        <v>0.7261052125903404</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1426160605696083</v>
+        <v>0.1396135911754754</v>
       </c>
       <c r="E2">
-        <v>1.881788683260908</v>
+        <v>1.815952248328472</v>
       </c>
       <c r="F2">
-        <v>4.577433125911682</v>
+        <v>4.505603869078641</v>
       </c>
       <c r="G2">
-        <v>5.349496332601973</v>
+        <v>5.316980729678335</v>
       </c>
       <c r="H2">
-        <v>0.08025970438751528</v>
+        <v>0.07102703857686876</v>
       </c>
       <c r="I2">
-        <v>0.005903807541797867</v>
+        <v>0.003179542007186953</v>
       </c>
       <c r="J2">
-        <v>2.632493768424581</v>
+        <v>2.63933208543034</v>
       </c>
       <c r="K2">
-        <v>0.5634572921613525</v>
+        <v>0.4096165942036549</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1524762429136146</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1593407899542036</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>3.153887678557368</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>2.671215668056902</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4844269334165858</v>
+        <v>0.6396226992277434</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.122706479631475</v>
+        <v>0.1205907106930226</v>
       </c>
       <c r="E3">
-        <v>1.626629747420196</v>
+        <v>1.572057612056497</v>
       </c>
       <c r="F3">
-        <v>3.943493488575939</v>
+        <v>3.89252749351067</v>
       </c>
       <c r="G3">
-        <v>4.601443114695712</v>
+        <v>4.573683012189917</v>
       </c>
       <c r="H3">
-        <v>0.06322942845000945</v>
+        <v>0.05588720252442947</v>
       </c>
       <c r="I3">
-        <v>0.006536737462899733</v>
+        <v>0.003531692533965014</v>
       </c>
       <c r="J3">
-        <v>2.277763550764234</v>
+        <v>2.306035978867783</v>
       </c>
       <c r="K3">
-        <v>0.5248073823398371</v>
+        <v>0.3830356128572774</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1378569949286756</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1560397040522759</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>2.848846467675344</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>2.40891530794633</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4403425188864674</v>
+        <v>0.5855435650224479</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.110727745380558</v>
+        <v>0.1090838007478823</v>
       </c>
       <c r="E4">
-        <v>1.473505688133955</v>
+        <v>1.425261338510381</v>
       </c>
       <c r="F4">
-        <v>3.562771770956346</v>
+        <v>3.522994426286488</v>
       </c>
       <c r="G4">
-        <v>4.151990844537949</v>
+        <v>4.126702341899204</v>
       </c>
       <c r="H4">
-        <v>0.05364727847644346</v>
+        <v>0.04735402439679692</v>
       </c>
       <c r="I4">
-        <v>0.006984047458503895</v>
+        <v>0.003800623455813668</v>
       </c>
       <c r="J4">
-        <v>2.064830029261572</v>
+        <v>2.103973203407747</v>
       </c>
       <c r="K4">
-        <v>0.5017937305816815</v>
+        <v>0.3674513613477721</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1298101716901066</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1541393598707472</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2.663189306752713</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>2.249867428701691</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4209941194590954</v>
+        <v>0.5620066643802772</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1058970401938808</v>
+        <v>0.1044302331676334</v>
       </c>
       <c r="E5">
-        <v>1.411831681095876</v>
+        <v>1.366046227849878</v>
       </c>
       <c r="F5">
-        <v>3.409411368321258</v>
+        <v>3.373856048643233</v>
       </c>
       <c r="G5">
-        <v>3.970895076534788</v>
+        <v>3.946529871827238</v>
       </c>
       <c r="H5">
-        <v>0.04993079164707748</v>
+        <v>0.04404204542775947</v>
       </c>
       <c r="I5">
-        <v>0.007262387320026598</v>
+        <v>0.004014043398658629</v>
       </c>
       <c r="J5">
-        <v>1.979083094252388</v>
+        <v>2.022166839850712</v>
       </c>
       <c r="K5">
-        <v>0.4937246986577861</v>
+        <v>0.3620511004451359</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1269514605989492</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1537803130244306</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.591606816167086</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>2.18845603342524</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4162777628629755</v>
+        <v>0.5565461400956053</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1050976697630261</v>
+        <v>0.1036594449964525</v>
       </c>
       <c r="E6">
-        <v>1.401630072950695</v>
+        <v>1.356246427941173</v>
       </c>
       <c r="F6">
-        <v>3.384044291652913</v>
+        <v>3.34917151079236</v>
       </c>
       <c r="G6">
-        <v>3.940937344364329</v>
+        <v>3.916721107445056</v>
       </c>
       <c r="H6">
-        <v>0.0493241899896244</v>
+        <v>0.04350136045959196</v>
       </c>
       <c r="I6">
-        <v>0.007416628218759769</v>
+        <v>0.004170240505557032</v>
       </c>
       <c r="J6">
-        <v>1.964901393786874</v>
+        <v>2.008612226651195</v>
       </c>
       <c r="K6">
-        <v>0.4937867603190682</v>
+        <v>0.362109911983385</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1267226092832736</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1541939056749868</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2.584248125229067</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>2.181851710248765</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.435988206108334</v>
+        <v>0.5810232791931469</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1106624051075187</v>
+        <v>0.1084496885853525</v>
       </c>
       <c r="E7">
-        <v>1.472671199715279</v>
+        <v>1.424167016995298</v>
       </c>
       <c r="F7">
-        <v>3.56069670422383</v>
+        <v>3.512712516403667</v>
       </c>
       <c r="G7">
-        <v>4.149540701878237</v>
+        <v>4.129797287756247</v>
       </c>
       <c r="H7">
-        <v>0.05359643327935437</v>
+        <v>0.04727072939843335</v>
       </c>
       <c r="I7">
-        <v>0.007265417066339097</v>
+        <v>0.004114010968757853</v>
       </c>
       <c r="J7">
-        <v>2.063669712465497</v>
+        <v>2.081034049496907</v>
       </c>
       <c r="K7">
-        <v>0.505497223582914</v>
+        <v>0.3699809685399593</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1304404849251952</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1554026516621043</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>2.67456787079081</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>2.258827443959461</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5254446543241045</v>
+        <v>0.6909255388220856</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1356930971641219</v>
+        <v>0.1310867781206184</v>
       </c>
       <c r="E8">
-        <v>1.792967867100131</v>
+        <v>1.730116846709663</v>
       </c>
       <c r="F8">
-        <v>4.356854602543166</v>
+        <v>4.264678520017952</v>
       </c>
       <c r="G8">
-        <v>5.089253854131073</v>
+        <v>5.077026057340731</v>
       </c>
       <c r="H8">
-        <v>0.07418595611836487</v>
+        <v>0.06548871368879006</v>
       </c>
       <c r="I8">
-        <v>0.006448909612156051</v>
+        <v>0.003671214025953162</v>
       </c>
       <c r="J8">
-        <v>2.509043395984577</v>
+        <v>2.450523218335832</v>
       </c>
       <c r="K8">
-        <v>0.5550966982666949</v>
+        <v>0.4038514883091722</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1482848651444222</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1597809015874034</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>3.064914032997706</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>2.593570145490901</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7028054351517028</v>
+        <v>0.9059964967347014</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1873141929833082</v>
+        <v>0.1793208247422342</v>
       </c>
       <c r="E9">
-        <v>2.457910600756634</v>
+        <v>2.361655622903385</v>
       </c>
       <c r="F9">
-        <v>6.004407876910108</v>
+        <v>5.838554553338497</v>
       </c>
       <c r="G9">
-        <v>7.032232309530571</v>
+        <v>7.009229802091511</v>
       </c>
       <c r="H9">
-        <v>0.123152436505741</v>
+        <v>0.1087518457860668</v>
       </c>
       <c r="I9">
-        <v>0.004899430836709406</v>
+        <v>0.002749535205238018</v>
       </c>
       <c r="J9">
-        <v>3.431592721365121</v>
+        <v>3.279807146407563</v>
       </c>
       <c r="K9">
-        <v>0.6512957820391492</v>
+        <v>0.4714058524226346</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1892043083013171</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1672824385116058</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>3.821446641586363</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>3.248317306373821</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8274133909539216</v>
+        <v>1.056783412503933</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2219824534114707</v>
+        <v>0.2075178468956551</v>
       </c>
       <c r="E10">
-        <v>2.857066834716477</v>
+        <v>2.730480689928825</v>
       </c>
       <c r="F10">
-        <v>7.211142713744351</v>
+        <v>6.926346221171286</v>
       </c>
       <c r="G10">
-        <v>8.447844152625237</v>
+        <v>8.444956384644058</v>
       </c>
       <c r="H10">
-        <v>0.1635821214533166</v>
+        <v>0.1437929994787375</v>
       </c>
       <c r="I10">
-        <v>0.00422507927281135</v>
+        <v>0.00252201116251527</v>
       </c>
       <c r="J10">
-        <v>4.103606991505728</v>
+        <v>3.733488506188792</v>
       </c>
       <c r="K10">
-        <v>0.7278334434132816</v>
+        <v>0.5263384972155833</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.224365723354083</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.17404795523057</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4.392771804451201</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>3.745125269751725</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8764230239589494</v>
+        <v>1.117364721571789</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.190171209870897</v>
+        <v>0.1701005641800748</v>
       </c>
       <c r="E11">
-        <v>2.060991543236057</v>
+        <v>1.942329763392763</v>
       </c>
       <c r="F11">
-        <v>7.027257904605818</v>
+        <v>6.635906531314362</v>
       </c>
       <c r="G11">
-        <v>8.173502868931052</v>
+        <v>8.247413360243286</v>
       </c>
       <c r="H11">
-        <v>0.1731553117270863</v>
+        <v>0.1533530701573262</v>
       </c>
       <c r="I11">
-        <v>0.004438238944215911</v>
+        <v>0.003002328864884163</v>
       </c>
       <c r="J11">
-        <v>3.962459900649776</v>
+        <v>3.321024070101373</v>
       </c>
       <c r="K11">
-        <v>0.770167734960765</v>
+        <v>0.5570146288295277</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2431910490156852</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1790508168471092</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>4.676079097228524</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>3.990823712439663</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8984763595842651</v>
+        <v>1.143771739568678</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1588916134378735</v>
+        <v>0.1381355187181583</v>
       </c>
       <c r="E12">
-        <v>1.45617561554792</v>
+        <v>1.350198038983862</v>
       </c>
       <c r="F12">
-        <v>6.623832974316997</v>
+        <v>6.203322235592537</v>
       </c>
       <c r="G12">
-        <v>7.655045915746769</v>
+        <v>7.767078146372512</v>
       </c>
       <c r="H12">
-        <v>0.1997997249981012</v>
+        <v>0.1810910220062709</v>
       </c>
       <c r="I12">
-        <v>0.004298829379830948</v>
+        <v>0.00292621934256676</v>
       </c>
       <c r="J12">
-        <v>3.706307435484575</v>
+        <v>2.974608567547477</v>
       </c>
       <c r="K12">
-        <v>0.7828461607044801</v>
+        <v>0.5662507166476871</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.249548853632632</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1800146900426114</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>4.772479656867574</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>4.075149850847765</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8944612085595338</v>
+        <v>1.138823380213353</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1267842535079637</v>
+        <v>0.1093973059205666</v>
       </c>
       <c r="E13">
-        <v>0.9689969883159648</v>
+        <v>0.8791134277693189</v>
       </c>
       <c r="F13">
-        <v>6.037767865262026</v>
+        <v>5.661032677916779</v>
       </c>
       <c r="G13">
-        <v>6.930980792842149</v>
+        <v>7.040665537191728</v>
       </c>
       <c r="H13">
-        <v>0.2407925497342944</v>
+        <v>0.224052834513401</v>
       </c>
       <c r="I13">
-        <v>0.004278899009388937</v>
+        <v>0.002884585139904416</v>
       </c>
       <c r="J13">
-        <v>3.352642167027739</v>
+        <v>2.69809772498229</v>
       </c>
       <c r="K13">
-        <v>0.7794029683508654</v>
+        <v>0.5637442566582536</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.247981663664973</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1796159839196037</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>4.749436361342759</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>4.055133138113405</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8785493236400441</v>
+        <v>1.119851314132347</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1046976052596449</v>
+        <v>0.09090459917131</v>
       </c>
       <c r="E14">
-        <v>0.7044191500014065</v>
+        <v>0.6262126233563023</v>
       </c>
       <c r="F14">
-        <v>5.555399490972945</v>
+        <v>5.236748276077776</v>
       </c>
       <c r="G14">
-        <v>6.344353992617243</v>
+        <v>6.435800781524279</v>
       </c>
       <c r="H14">
-        <v>0.2793198075697489</v>
+        <v>0.2642023557326638</v>
       </c>
       <c r="I14">
-        <v>0.004405233575648815</v>
+        <v>0.002971059118972441</v>
       </c>
       <c r="J14">
-        <v>3.067203866671093</v>
+        <v>2.530237130793012</v>
       </c>
       <c r="K14">
-        <v>0.7709080011075216</v>
+        <v>0.5575548820124183</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2436304333209662</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1790485541235753</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>4.683040835970473</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>3.996973316757931</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8673533903836415</v>
+        <v>1.106768504028111</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09886437040169938</v>
+        <v>0.08649411412450547</v>
       </c>
       <c r="E15">
-        <v>0.6467244071793203</v>
+        <v>0.5720844735728292</v>
       </c>
       <c r="F15">
-        <v>5.399986378684332</v>
+        <v>5.107602385971887</v>
       </c>
       <c r="G15">
-        <v>6.158399732789519</v>
+        <v>6.238699538929723</v>
       </c>
       <c r="H15">
-        <v>0.2881550811326434</v>
+        <v>0.2736222410059099</v>
       </c>
       <c r="I15">
-        <v>0.004585676017240026</v>
+        <v>0.003143638877518562</v>
       </c>
       <c r="J15">
-        <v>2.977367031970402</v>
+        <v>2.496658479631151</v>
       </c>
       <c r="K15">
-        <v>0.7671135838124812</v>
+        <v>0.5547859089091034</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2413562023586096</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.179081786018827</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>4.646875737567882</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>3.965012659181838</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8121092984665665</v>
+        <v>1.040649227358188</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09255340285617564</v>
+        <v>0.08526273504804749</v>
       </c>
       <c r="E16">
-        <v>0.6083847358044849</v>
+        <v>0.5423071811973159</v>
       </c>
       <c r="F16">
-        <v>5.030914794570919</v>
+        <v>4.844126365455082</v>
       </c>
       <c r="G16">
-        <v>5.736087272366262</v>
+        <v>5.761378067281896</v>
       </c>
       <c r="H16">
-        <v>0.2630205156604717</v>
+        <v>0.2504803709794459</v>
       </c>
       <c r="I16">
-        <v>0.005015896760768079</v>
+        <v>0.003422648797452688</v>
       </c>
       <c r="J16">
-        <v>2.778868756057818</v>
+        <v>2.53788078617896</v>
       </c>
       <c r="K16">
-        <v>0.7367419866929126</v>
+        <v>0.5327418696935595</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2262062242632723</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1769300220484737</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>4.411745866443709</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>3.759433214787236</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7780555216011749</v>
+        <v>0.9998368602336996</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09884086262932357</v>
+        <v>0.09344605041007981</v>
       </c>
       <c r="E17">
-        <v>0.7015247787859167</v>
+        <v>0.6363505986957634</v>
       </c>
       <c r="F17">
-        <v>4.997681387323837</v>
+        <v>4.852518670629138</v>
       </c>
       <c r="G17">
-        <v>5.715353073626488</v>
+        <v>5.715084786975353</v>
       </c>
       <c r="H17">
-        <v>0.2210477857833553</v>
+        <v>0.2091850900727081</v>
       </c>
       <c r="I17">
-        <v>0.005306317657361781</v>
+        <v>0.003619014218641858</v>
       </c>
       <c r="J17">
-        <v>2.774330534344074</v>
+        <v>2.633926009637889</v>
       </c>
       <c r="K17">
-        <v>0.7182930209565868</v>
+        <v>0.5194061732214408</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2171449077486827</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1756483311109562</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>4.267897868637277</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>3.633805871427484</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7620504551377394</v>
+        <v>0.9799431663911093</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1180399926855245</v>
+        <v>0.1129855743440373</v>
       </c>
       <c r="E18">
-        <v>0.9875937626506897</v>
+        <v>0.9168337060601601</v>
       </c>
       <c r="F18">
-        <v>5.252338050703599</v>
+        <v>5.117365427751366</v>
       </c>
       <c r="G18">
-        <v>6.043078495729787</v>
+        <v>6.027565826091518</v>
       </c>
       <c r="H18">
-        <v>0.1717729931829197</v>
+        <v>0.1595884364213589</v>
       </c>
       <c r="I18">
-        <v>0.005201912227929206</v>
+        <v>0.00341430621508465</v>
       </c>
       <c r="J18">
-        <v>2.938326095852403</v>
+        <v>2.834259802376209</v>
       </c>
       <c r="K18">
-        <v>0.704210383409027</v>
+        <v>0.5092679598537515</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2111189711718637</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1739336174038506</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>4.173968501421939</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>3.552566743167489</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7538120580642556</v>
+        <v>0.9703595947249539</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1488100977224178</v>
+        <v>0.1429892797901431</v>
       </c>
       <c r="E19">
-        <v>1.520614353554677</v>
+        <v>1.437797548869241</v>
       </c>
       <c r="F19">
-        <v>5.737684425169391</v>
+        <v>5.59216333092678</v>
       </c>
       <c r="G19">
-        <v>6.651482840767926</v>
+        <v>6.62494061613711</v>
       </c>
       <c r="H19">
-        <v>0.1388089873795124</v>
+        <v>0.125311858818911</v>
       </c>
       <c r="I19">
-        <v>0.005381502156640572</v>
+        <v>0.003594476720516049</v>
       </c>
       <c r="J19">
-        <v>3.237011408356011</v>
+        <v>3.13003885905664</v>
       </c>
       <c r="K19">
-        <v>0.7021806382960278</v>
+        <v>0.5078025191338753</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2097881680637883</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1741186162574024</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>4.15093092319924</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>3.532155292285438</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7819724523656362</v>
+        <v>1.004478775272759</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2124596098415878</v>
+        <v>0.2019222309133966</v>
       </c>
       <c r="E20">
-        <v>2.744438919208335</v>
+        <v>2.627861048841851</v>
       </c>
       <c r="F20">
-        <v>6.884118717726068</v>
+        <v>6.663884417956126</v>
       </c>
       <c r="G20">
-        <v>8.06399826596504</v>
+        <v>8.036173991439966</v>
       </c>
       <c r="H20">
-        <v>0.152195834116899</v>
+        <v>0.1341576621379144</v>
       </c>
       <c r="I20">
-        <v>0.005252132228487305</v>
+        <v>0.003571218719577551</v>
       </c>
       <c r="J20">
-        <v>3.921259764309525</v>
+        <v>3.691700271173488</v>
       </c>
       <c r="K20">
-        <v>0.7199718592388535</v>
+        <v>0.5206188965283047</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2180290810508012</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1757059250054027</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>4.282304901225046</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>3.646440191411074</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8791446987358427</v>
+        <v>1.121331427858024</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2491392676740674</v>
+        <v>0.2212343696035362</v>
       </c>
       <c r="E21">
-        <v>3.262683984314521</v>
+        <v>3.106888174469105</v>
       </c>
       <c r="F21">
-        <v>7.982926966845611</v>
+        <v>7.486339648224146</v>
       </c>
       <c r="G21">
-        <v>9.363769998059126</v>
+        <v>9.45431383993423</v>
       </c>
       <c r="H21">
-        <v>0.1921906024990676</v>
+        <v>0.1675617113490482</v>
       </c>
       <c r="I21">
-        <v>0.004657007411067227</v>
+        <v>0.003282633636350951</v>
       </c>
       <c r="J21">
-        <v>4.540565034249539</v>
+        <v>3.70025991890958</v>
       </c>
       <c r="K21">
-        <v>0.7773677113325661</v>
+        <v>0.5622399905628725</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2459756668717787</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1802842895537253</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>4.715254362997882</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>4.024364298758542</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.947281522238427</v>
+        <v>1.202066445070841</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2710895660354709</v>
+        <v>0.2305973240742247</v>
       </c>
       <c r="E22">
-        <v>3.55063517831617</v>
+        <v>3.36692797583234</v>
       </c>
       <c r="F22">
-        <v>8.685929112889454</v>
+        <v>7.985832158928275</v>
       </c>
       <c r="G22">
-        <v>10.19192992309348</v>
+        <v>10.36890159878016</v>
       </c>
       <c r="H22">
-        <v>0.219232662196891</v>
+        <v>0.1897772456322393</v>
       </c>
       <c r="I22">
-        <v>0.003983873804842553</v>
+        <v>0.002742905352002722</v>
       </c>
       <c r="J22">
-        <v>4.934820834399204</v>
+        <v>3.659961066010453</v>
       </c>
       <c r="K22">
-        <v>0.810451163419394</v>
+        <v>0.5864196251045186</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2636436538101989</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1820462359639521</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>4.983394309352491</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>4.259884813161591</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9158952049805578</v>
+        <v>1.163996300389243</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2592811047482968</v>
+        <v>0.2271481181839761</v>
       </c>
       <c r="E23">
-        <v>3.395583910781127</v>
+        <v>3.228150163006703</v>
       </c>
       <c r="F23">
-        <v>8.307727523577</v>
+        <v>7.741143325876266</v>
       </c>
       <c r="G23">
-        <v>9.746409162658153</v>
+        <v>9.861840327274081</v>
       </c>
       <c r="H23">
-        <v>0.2045253354582464</v>
+        <v>0.1778755868749151</v>
       </c>
       <c r="I23">
-        <v>0.004003525572080058</v>
+        <v>0.002637213644207215</v>
       </c>
       <c r="J23">
-        <v>4.722706078442684</v>
+        <v>3.737584031956942</v>
       </c>
       <c r="K23">
-        <v>0.787958286494522</v>
+        <v>0.5699955822841218</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2528433705207789</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1798131773193603</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>4.824826428540291</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>4.121589423601591</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7879251788613999</v>
+        <v>1.010159765287938</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2164010908263236</v>
+        <v>0.2058090062960929</v>
       </c>
       <c r="E24">
-        <v>2.835377753430279</v>
+        <v>2.716919997273735</v>
       </c>
       <c r="F24">
-        <v>6.934806567366422</v>
+        <v>6.71428626919112</v>
       </c>
       <c r="G24">
-        <v>8.128811534334034</v>
+        <v>8.098800528585912</v>
       </c>
       <c r="H24">
-        <v>0.1542887491227418</v>
+        <v>0.1360369778264925</v>
       </c>
       <c r="I24">
-        <v>0.004721862074525518</v>
+        <v>0.00294902118046636</v>
       </c>
       <c r="J24">
-        <v>3.952963341265217</v>
+        <v>3.725741285782703</v>
       </c>
       <c r="K24">
-        <v>0.7117378459152022</v>
+        <v>0.5147038972879727</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2157073618184313</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1736002496317326</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>4.251808598754025</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>3.621333730405325</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.647943454452701</v>
+        <v>0.8411086027822421</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1729868677262942</v>
+        <v>0.1668627387652748</v>
       </c>
       <c r="E25">
-        <v>2.272731376509682</v>
+        <v>2.18693712929597</v>
       </c>
       <c r="F25">
-        <v>5.546566506162208</v>
+        <v>5.415349967221289</v>
       </c>
       <c r="G25">
-        <v>6.492466542746854</v>
+        <v>6.465229664980995</v>
       </c>
       <c r="H25">
-        <v>0.1087308906827502</v>
+        <v>0.09611908851280049</v>
       </c>
       <c r="I25">
-        <v>0.005746076940682521</v>
+        <v>0.003501266619464261</v>
       </c>
       <c r="J25">
-        <v>3.175124639767716</v>
+        <v>3.083714355301083</v>
       </c>
       <c r="K25">
-        <v>0.6317499572742733</v>
+        <v>0.4575221199960211</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1790127887569533</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.167223660354761</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>3.638247859403151</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3.087883014189629</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
